--- a/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="650">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1118,82 +1118,1222 @@
     <t>customerAddress</t>
   </si>
   <si>
+    <t>realCapital</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>payStatusOfDeposit</t>
+  </si>
+  <si>
+    <t>payStatusOfTotalCapital</t>
+  </si>
+  <si>
+    <t>saleTime</t>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boothId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者电话</t>
+  </si>
+  <si>
+    <t>消费者地址</t>
+  </si>
+  <si>
+    <t>商品金额总计</t>
+  </si>
+  <si>
+    <t>优惠金额</t>
+  </si>
+  <si>
+    <t>实际金额</t>
+  </si>
+  <si>
+    <t>定金金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金缴纳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全款缴纳状态</t>
+  </si>
+  <si>
+    <t>销售记录发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Sale_Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+  </si>
+  <si>
+    <t>2.Pay_Status - 缴纳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型名称</t>
+  </si>
+  <si>
+    <t>typeId</t>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Voucher_Type - 单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Sale_Record_Detail - 销售记录详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录标识</t>
+  </si>
+  <si>
+    <t>所属单据号</t>
+  </si>
+  <si>
+    <t>能定位到某商品的编号</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+  </si>
+  <si>
+    <t>recordId</t>
+  </si>
+  <si>
+    <t>goodsCode</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>六、Message - 消息模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendUserCode</t>
+  </si>
+  <si>
+    <t>messageText</t>
+  </si>
+  <si>
+    <t>messageStatusId</t>
+  </si>
+  <si>
+    <t>消息标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Message_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectBaseFee</t>
+  </si>
+  <si>
+    <t>projectBeginDate</t>
+  </si>
+  <si>
+    <t>projectEndDate</t>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectStatusId</t>
+  </si>
+  <si>
+    <t>项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发起方或组织方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目门槛费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次编辑用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Project - 项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Rl_Project_Merchant - 项目商户关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Project_Status - 项目状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七、Project - 项目模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八、System - 系统模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.System_Parameter - 系统参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九、Query - 统计查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十、AfterSale - 售后模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的销售单据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原售后记录标识（适用于售后回访）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理问题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理意见备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结果备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrIdeaRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrResultRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.After_Sale_Record - 售后记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeBeginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条款编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的营业员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.After_Sale_Record_Status - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.After_Sale_Record_Type - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldAsrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">voucherCode  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsCategroyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商品品类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一、Goods - 商品模块（含品类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品品类 - Goods_Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcName</t>
+  </si>
+  <si>
+    <t>gcGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeGcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPrice</t>
+  </si>
+  <si>
+    <t>2.商品 - Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类名称</t>
+  </si>
+  <si>
+    <t>品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类所属级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品类别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标签价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二、Evaluate - 评价管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商户评价 - Merchant_Evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meSonItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该子评价项目占当前父评价项目的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meParentItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三、商户管理（并入招商模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四、日志管理（暂时不涉及）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五、品牌管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandCode</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>brandSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessLicense</t>
+  </si>
+  <si>
+    <t>registeredCapital</t>
+  </si>
+  <si>
+    <t>taxRegistrationNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalPersonNo</t>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌助记符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.品牌信息 - Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.品牌认证类型 - Brand_Cert_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.品牌认证 - Brand_Cert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照注册号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务登记证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证类型标识</t>
+  </si>
+  <si>
+    <t>认证类型名称</t>
+  </si>
+  <si>
+    <t>品牌认证标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六、合同模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板标识</t>
+  </si>
+  <si>
+    <t>合同模板编号</t>
+  </si>
+  <si>
+    <t>合同模板文本之存储路径</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctId</t>
+  </si>
+  <si>
+    <t>ctCode</t>
+  </si>
+  <si>
+    <t>ctName</t>
+  </si>
+  <si>
+    <t>storagePath</t>
+  </si>
+  <si>
+    <t>1.合同模板 - Contract_Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.Booth_Real_Fee - 摊位实际收费款项信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十七、合同管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型标识</t>
+  </si>
+  <si>
+    <t>项目标识</t>
+  </si>
+  <si>
+    <t>合同期限</t>
+  </si>
+  <si>
+    <t>合同签订日期</t>
+  </si>
+  <si>
+    <t>合同起始日期</t>
+  </si>
+  <si>
+    <t>合同截止日期</t>
+  </si>
+  <si>
+    <t>合同费用总计</t>
+  </si>
+  <si>
+    <t>优惠费用总计</t>
+  </si>
+  <si>
+    <t>实际费用总计</t>
+  </si>
+  <si>
+    <t>合同缴费周期方式类型标识</t>
+  </si>
+  <si>
+    <t>合同分期次数</t>
+  </si>
+  <si>
+    <t>登记合同的用户编号</t>
+  </si>
+  <si>
+    <t>登记时间</t>
+  </si>
+  <si>
+    <t>最近一次的用户编号</t>
+  </si>
+  <si>
+    <t>最近一次的编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态标识</t>
+  </si>
+  <si>
+    <t>1.合同基本信息 - Contract_Basic_Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractCode</t>
+  </si>
+  <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signingDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>totalCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>discountAmount</t>
-  </si>
-  <si>
-    <t>realCapital</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>payStatusOfDeposit</t>
-  </si>
-  <si>
-    <t>payStatusOfTotalCapital</t>
-  </si>
-  <si>
-    <t>saleTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.合同收费明细信息 - Contract_Charge_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务收费名目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收金额</t>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boothId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者电话</t>
-  </si>
-  <si>
-    <t>消费者地址</t>
-  </si>
-  <si>
-    <t>商品金额总计</t>
-  </si>
-  <si>
-    <t>优惠金额</t>
-  </si>
-  <si>
-    <t>实际金额</t>
-  </si>
-  <si>
-    <t>定金金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定金缴纳状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全款缴纳状态</t>
-  </si>
-  <si>
-    <t>销售记录发生时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>3.合同缴费方式明细信息 - Contract_PayMode_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各分期序号</t>
+  </si>
+  <si>
+    <t>各分期的截止日期</t>
+  </si>
+  <si>
+    <t>各分期缴费金额</t>
+  </si>
+  <si>
+    <t>各分期具体缴费类型标识</t>
+  </si>
+  <si>
+    <t>periodNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payModeTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请类型</t>
+  </si>
+  <si>
+    <t>提交申请日期</t>
+  </si>
+  <si>
+    <t>申请合同终止的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续的截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同终止、延续的原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1201,11 +2341,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Sale_Record</t>
+    <t>申请状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.合同延续、终止申请 - Contract_Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyFinishDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费方式标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.合同缴费方式 - PayMode_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.合同类型 - Contract_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1214,894 +2418,30 @@
   </si>
   <si>
     <t>statusName</t>
-  </si>
-  <si>
-    <t>2.Pay_Status - 缴纳状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型名称</t>
-  </si>
-  <si>
-    <t>typeId</t>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Voucher_Type - 单据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.Sale_Record_Detail - 销售记录详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录标识</t>
-  </si>
-  <si>
-    <t>所属单据号</t>
-  </si>
-  <si>
-    <t>能定位到某商品的编号</t>
-  </si>
-  <si>
-    <t>商品单价</t>
-  </si>
-  <si>
-    <t>商品数量</t>
-  </si>
-  <si>
-    <t>recordId</t>
-  </si>
-  <si>
-    <t>goodsCode</t>
-  </si>
-  <si>
-    <t>unitPrice</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>六、Message - 消息模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendUserCode</t>
-  </si>
-  <si>
-    <t>messageText</t>
-  </si>
-  <si>
-    <t>messageStatusId</t>
-  </si>
-  <si>
-    <t>消息标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送者编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受者编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Message_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectBaseFee</t>
-  </si>
-  <si>
-    <t>projectBeginDate</t>
-  </si>
-  <si>
-    <t>projectEndDate</t>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectStatusId</t>
-  </si>
-  <si>
-    <t>项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目发起方或组织方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目门槛费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次编辑用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Project - 项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Rl_Project_Merchant - 项目商户关联信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Project_Status - 项目状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七、Project - 项目模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八、System - 系统模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.System_Parameter - 系统参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九、Query - 统计查询模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十、AfterSale - 售后模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的销售单据编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理起始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原售后记录标识（适用于售后回访）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理问题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理意见备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结果备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrIdeaRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrResultRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.After_Sale_Record - 售后记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeBeginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeEndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反条款编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的营业员名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.After_Sale_Record_Status - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.After_Sale_Record_Type - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldAsrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">voucherCode  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsCategroyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商品品类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一、Goods - 商品模块（含品类）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.商品品类 - Goods_Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcName</t>
-  </si>
-  <si>
-    <t>gcGradeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upGradeGcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsPrice</t>
-  </si>
-  <si>
-    <t>2.商品 - Goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类名称</t>
-  </si>
-  <si>
-    <t>品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类所属级别序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品类别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标签价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二、Evaluate - 评价管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.商户评价 - Merchant_Evaluate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meSonItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该子评价项目占当前父评价项目的权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父评价项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子评价项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meParentItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三、商户管理（并入招商模块）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十四、日志管理（暂时不涉及）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十五、品牌管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandCode</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>brandSymbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessLicense</t>
-  </si>
-  <si>
-    <t>registeredCapital</t>
-  </si>
-  <si>
-    <t>taxRegistrationNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalPersonNo</t>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌助记符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.品牌信息 - Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.品牌认证类型 - Brand_Cert_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.品牌认证 - Brand_Cert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照注册号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务登记证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证类型标识</t>
-  </si>
-  <si>
-    <t>认证类型名称</t>
-  </si>
-  <si>
-    <t>品牌认证标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十六、合同模板管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板标识</t>
-  </si>
-  <si>
-    <t>合同模板编号</t>
-  </si>
-  <si>
-    <t>合同模板文本之存储路径</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctId</t>
-  </si>
-  <si>
-    <t>ctCode</t>
-  </si>
-  <si>
-    <t>ctName</t>
-  </si>
-  <si>
-    <t>storagePath</t>
-  </si>
-  <si>
-    <t>1.合同模板 - Contract_Template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.Booth_Real_Fee - 摊位实际收费款项信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.合同状态 - Contract_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费周期类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费周期类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2209,19 +2549,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2518,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J486"/>
+  <dimension ref="A1:J561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="A559" sqref="A559:XFD559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2530,24 +2870,24 @@
     <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -2598,7 +2938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1"/>
+    <row r="9" spans="1:10" s="8" customFormat="1"/>
     <row r="10" spans="1:10" s="7" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>19</v>
@@ -2708,7 +3048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="5" customFormat="1"/>
+    <row r="24" spans="1:2" s="6" customFormat="1"/>
     <row r="25" spans="1:2" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>38</v>
@@ -2818,7 +3158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="5" customFormat="1"/>
+    <row r="39" spans="1:2" s="6" customFormat="1"/>
     <row r="40" spans="1:2" s="7" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>73</v>
@@ -2840,10 +3180,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="5" customFormat="1"/>
+    <row r="43" spans="1:2" s="6" customFormat="1"/>
     <row r="44" spans="1:2" s="7" customFormat="1">
       <c r="A44" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2910,10 +3250,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="5" customFormat="1"/>
+    <row r="53" spans="1:2" s="6" customFormat="1"/>
     <row r="54" spans="1:2" s="7" customFormat="1">
       <c r="A54" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2980,7 +3320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="5" customFormat="1"/>
+    <row r="63" spans="1:2" s="6" customFormat="1"/>
     <row r="64" spans="1:2" s="7" customFormat="1">
       <c r="A64" s="7" t="s">
         <v>79</v>
@@ -3090,7 +3430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="9" customFormat="1"/>
+    <row r="78" spans="1:2" s="8" customFormat="1"/>
     <row r="79" spans="1:2" s="7" customFormat="1">
       <c r="A79" s="7" t="s">
         <v>95</v>
@@ -3137,9 +3477,9 @@
       </c>
     </row>
     <row r="86" spans="1:2" s="2" customFormat="1"/>
-    <row r="88" spans="1:2" s="6" customFormat="1">
-      <c r="A88" s="6" t="s">
-        <v>500</v>
+    <row r="88" spans="1:2" s="5" customFormat="1">
+      <c r="A88" s="5" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="7" customFormat="1">
@@ -3427,7 +3767,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="5" customFormat="1"/>
+    <row r="125" spans="1:2" s="6" customFormat="1"/>
     <row r="126" spans="1:2" s="7" customFormat="1">
       <c r="A126" s="7" t="s">
         <v>171</v>
@@ -3449,7 +3789,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="5" customFormat="1"/>
+    <row r="129" spans="1:2" s="6" customFormat="1"/>
     <row r="130" spans="1:2" s="7" customFormat="1">
       <c r="A130" s="7" t="s">
         <v>175</v>
@@ -3535,7 +3875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="5" customFormat="1"/>
+    <row r="141" spans="1:2" s="6" customFormat="1"/>
     <row r="142" spans="1:2" s="7" customFormat="1">
       <c r="A142" s="7" t="s">
         <v>189</v>
@@ -3581,7 +3921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="5" customFormat="1"/>
+    <row r="148" spans="1:2" s="6" customFormat="1"/>
     <row r="149" spans="1:2" s="7" customFormat="1">
       <c r="A149" s="7" t="s">
         <v>197</v>
@@ -3603,7 +3943,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="5" customFormat="1"/>
+    <row r="152" spans="1:2" s="6" customFormat="1"/>
     <row r="153" spans="1:2" s="7" customFormat="1">
       <c r="A153" s="7" t="s">
         <v>202</v>
@@ -3625,7 +3965,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="5" customFormat="1"/>
+    <row r="156" spans="1:2" s="6" customFormat="1"/>
     <row r="157" spans="1:2" s="7" customFormat="1">
       <c r="A157" s="7" t="s">
         <v>203</v>
@@ -3647,7 +3987,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="5" customFormat="1"/>
+    <row r="160" spans="1:2" s="6" customFormat="1"/>
     <row r="161" spans="1:2" s="7" customFormat="1">
       <c r="A161" s="7" t="s">
         <v>206</v>
@@ -3669,7 +4009,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="5" customFormat="1"/>
+    <row r="164" spans="1:2" s="6" customFormat="1"/>
     <row r="165" spans="1:2" s="7" customFormat="1">
       <c r="A165" s="7" t="s">
         <v>211</v>
@@ -3732,9 +4072,9 @@
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="175" spans="1:2" s="5" customFormat="1"/>
-    <row r="176" spans="1:2" s="6" customFormat="1">
-      <c r="A176" s="6" t="s">
+    <row r="175" spans="1:2" s="6" customFormat="1"/>
+    <row r="176" spans="1:2" s="5" customFormat="1">
+      <c r="A176" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3807,7 +4147,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="5" customFormat="1"/>
+    <row r="186" spans="1:2" s="6" customFormat="1"/>
     <row r="187" spans="1:2" s="7" customFormat="1">
       <c r="A187" s="7" t="s">
         <v>231</v>
@@ -3901,7 +4241,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="5" customFormat="1"/>
+    <row r="199" spans="1:2" s="6" customFormat="1"/>
     <row r="200" spans="1:2" s="7" customFormat="1">
       <c r="A200" s="7" t="s">
         <v>248</v>
@@ -3955,7 +4295,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="5" customFormat="1"/>
+    <row r="207" spans="1:2" s="6" customFormat="1"/>
     <row r="208" spans="1:2" s="7" customFormat="1">
       <c r="A208" s="7" t="s">
         <v>254</v>
@@ -3985,7 +4325,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="5" customFormat="1"/>
+    <row r="212" spans="1:2" s="6" customFormat="1"/>
     <row r="213" spans="1:2" s="7" customFormat="1">
       <c r="A213" s="7" t="s">
         <v>262</v>
@@ -4007,7 +4347,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="5" customFormat="1"/>
+    <row r="216" spans="1:2" s="6" customFormat="1"/>
     <row r="217" spans="1:2" s="7" customFormat="1">
       <c r="A217" s="7" t="s">
         <v>267</v>
@@ -4029,7 +4369,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="5" customFormat="1"/>
+    <row r="220" spans="1:2" s="6" customFormat="1"/>
     <row r="221" spans="1:2" s="7" customFormat="1">
       <c r="A221" s="7" t="s">
         <v>270</v>
@@ -4051,7 +4391,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="5" customFormat="1"/>
+    <row r="224" spans="1:2" s="6" customFormat="1"/>
     <row r="225" spans="1:2" s="7" customFormat="1">
       <c r="A225" s="7" t="s">
         <v>272</v>
@@ -4074,9 +4414,9 @@
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
-    <row r="230" spans="1:2" s="5" customFormat="1"/>
-    <row r="231" spans="1:2" s="6" customFormat="1">
-      <c r="A231" s="6" t="s">
+    <row r="230" spans="1:2" s="6" customFormat="1"/>
+    <row r="231" spans="1:2" s="5" customFormat="1">
+      <c r="A231" s="5" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4197,7 +4537,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="5" customFormat="1"/>
+    <row r="247" spans="1:2" s="6" customFormat="1"/>
     <row r="248" spans="1:2" s="7" customFormat="1">
       <c r="A248" s="7" t="s">
         <v>291</v>
@@ -4261,23 +4601,23 @@
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="257" spans="1:2" s="2" customFormat="1"/>
-    <row r="258" spans="1:2" s="5" customFormat="1"/>
-    <row r="259" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A259" s="6" t="s">
+    <row r="258" spans="1:2" s="6" customFormat="1"/>
+    <row r="259" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A259" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="7" customFormat="1">
       <c r="A260" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4285,7 +4625,7 @@
         <v>295</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4293,12 +4633,12 @@
         <v>44</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>49</v>
@@ -4309,7 +4649,7 @@
         <v>296</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4317,7 +4657,7 @@
         <v>297</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4325,63 +4665,63 @@
         <v>298</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="3" t="s">
-        <v>299</v>
+        <v>585</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="3" t="s">
-        <v>300</v>
+        <v>586</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4389,7 +4729,7 @@
         <v>133</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4405,73 +4745,73 @@
         <v>11</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" s="5" customFormat="1"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" s="6" customFormat="1"/>
     <row r="280" spans="1:2" s="7" customFormat="1">
       <c r="A280" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" s="5" customFormat="1"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" s="6" customFormat="1"/>
     <row r="284" spans="1:2" s="7" customFormat="1">
       <c r="A284" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" s="5" customFormat="1"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" s="6" customFormat="1"/>
     <row r="288" spans="1:2" s="7" customFormat="1">
       <c r="A288" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4479,31 +4819,31 @@
         <v>294</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4527,60 +4867,60 @@
         <v>15</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="298" spans="1:2" s="2" customFormat="1"/>
-    <row r="299" spans="1:2" s="5" customFormat="1"/>
-    <row r="300" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A300" s="6" t="s">
-        <v>345</v>
+    <row r="299" spans="1:2" s="6" customFormat="1"/>
+    <row r="300" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A300" s="5" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="301" spans="1:2" s="7" customFormat="1">
       <c r="A301" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4591,87 +4931,87 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="5" customFormat="1"/>
+    <row r="308" spans="1:2" s="6" customFormat="1"/>
     <row r="309" spans="1:2" s="7" customFormat="1">
       <c r="A309" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="313" spans="1:2" s="2" customFormat="1"/>
-    <row r="314" spans="1:2" s="5" customFormat="1"/>
-    <row r="315" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A315" s="6" t="s">
-        <v>389</v>
+    <row r="314" spans="1:2" s="6" customFormat="1"/>
+    <row r="315" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A315" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="316" spans="1:2" s="7" customFormat="1">
       <c r="A316" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4679,7 +5019,7 @@
         <v>133</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4687,262 +5027,262 @@
         <v>7</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" s="5" customFormat="1"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" s="6" customFormat="1"/>
     <row r="328" spans="1:2" s="7" customFormat="1">
       <c r="A328" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" s="5" customFormat="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" s="6" customFormat="1"/>
     <row r="332" spans="1:2" s="7" customFormat="1">
       <c r="A332" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="336" spans="1:2" s="2" customFormat="1"/>
-    <row r="337" spans="1:2" s="5" customFormat="1"/>
-    <row r="338" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A338" s="6" t="s">
-        <v>390</v>
+    <row r="337" spans="1:2" s="6" customFormat="1"/>
+    <row r="338" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A338" s="5" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="7" customFormat="1">
       <c r="A339" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="344" spans="1:2" s="2" customFormat="1"/>
-    <row r="345" spans="1:2" s="5" customFormat="1"/>
-    <row r="346" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A346" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" s="5" customFormat="1"/>
+    <row r="345" spans="1:2" s="6" customFormat="1"/>
+    <row r="346" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A346" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" s="6" customFormat="1"/>
     <row r="348" spans="1:2" s="2" customFormat="1"/>
-    <row r="349" spans="1:2" s="5" customFormat="1"/>
-    <row r="350" spans="1:2" s="6" customFormat="1">
-      <c r="A350" s="6" t="s">
-        <v>399</v>
+    <row r="349" spans="1:2" s="6" customFormat="1"/>
+    <row r="350" spans="1:2" s="5" customFormat="1">
+      <c r="A350" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B351" s="7"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4950,7 +5290,7 @@
         <v>135</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4958,167 +5298,167 @@
         <v>12</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" s="5" customFormat="1"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" s="6" customFormat="1"/>
     <row r="373" spans="1:2">
       <c r="A373" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B373" s="7"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" s="5" customFormat="1"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" s="6" customFormat="1"/>
     <row r="377" spans="1:2">
       <c r="A377" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B377" s="7"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" s="5" customFormat="1"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" s="6" customFormat="1"/>
     <row r="381" spans="1:2">
       <c r="A381" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B381" s="7"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" s="5" customFormat="1"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" s="6" customFormat="1"/>
     <row r="385" spans="1:2" s="7" customFormat="1">
       <c r="A385" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" s="5" customFormat="1"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" s="6" customFormat="1"/>
     <row r="389" spans="1:2" s="2" customFormat="1"/>
-    <row r="390" spans="1:2" s="5" customFormat="1"/>
-    <row r="391" spans="1:2" s="6" customFormat="1">
-      <c r="A391" s="6" t="s">
-        <v>457</v>
+    <row r="390" spans="1:2" s="6" customFormat="1"/>
+    <row r="391" spans="1:2" s="5" customFormat="1">
+      <c r="A391" s="5" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="7" customFormat="1">
       <c r="A392" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5126,7 +5466,7 @@
         <v>11</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5134,37 +5474,37 @@
         <v>15</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" s="5" customFormat="1"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" s="6" customFormat="1"/>
     <row r="402" spans="1:2" s="7" customFormat="1">
       <c r="A402" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5172,15 +5512,15 @@
         <v>172</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5188,7 +5528,7 @@
         <v>133</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5196,7 +5536,7 @@
         <v>7</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5204,7 +5544,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5212,238 +5552,238 @@
         <v>15</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" s="5" customFormat="1"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" s="6" customFormat="1"/>
     <row r="413" spans="1:2" s="2" customFormat="1"/>
-    <row r="414" spans="1:2" s="5" customFormat="1"/>
-    <row r="415" spans="1:2" s="6" customFormat="1">
-      <c r="A415" s="6" t="s">
-        <v>485</v>
+    <row r="414" spans="1:2" s="6" customFormat="1"/>
+    <row r="415" spans="1:2" s="5" customFormat="1">
+      <c r="A415" s="5" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="7" customFormat="1">
       <c r="A416" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="426" spans="1:2" s="7" customFormat="1">
       <c r="A426" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" s="5" customFormat="1"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" s="6" customFormat="1"/>
     <row r="431" spans="1:2" s="2" customFormat="1"/>
-    <row r="432" spans="1:2" s="5" customFormat="1"/>
-    <row r="433" spans="1:2" s="6" customFormat="1">
-      <c r="A433" s="6" t="s">
+    <row r="432" spans="1:2" s="6" customFormat="1"/>
+    <row r="433" spans="1:2" s="5" customFormat="1">
+      <c r="A433" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" s="6" customFormat="1"/>
+    <row r="435" spans="1:2" s="2" customFormat="1"/>
+    <row r="436" spans="1:2" s="6" customFormat="1"/>
+    <row r="437" spans="1:2" s="5" customFormat="1">
+      <c r="A437" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" s="6" customFormat="1"/>
+    <row r="439" spans="1:2" s="2" customFormat="1"/>
+    <row r="440" spans="1:2" s="6" customFormat="1"/>
+    <row r="441" spans="1:2" s="5" customFormat="1">
+      <c r="A441" s="5" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" s="5" customFormat="1"/>
-    <row r="435" spans="1:2" s="2" customFormat="1"/>
-    <row r="436" spans="1:2" s="5" customFormat="1"/>
-    <row r="437" spans="1:2" s="6" customFormat="1">
-      <c r="A437" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" s="5" customFormat="1"/>
-    <row r="439" spans="1:2" s="2" customFormat="1"/>
-    <row r="440" spans="1:2" s="5" customFormat="1"/>
-    <row r="441" spans="1:2" s="6" customFormat="1">
-      <c r="A441" s="6" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="442" spans="1:2" s="7" customFormat="1">
       <c r="A442" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5451,34 +5791,34 @@
         <v>15</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" s="5" customFormat="1"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" s="6" customFormat="1"/>
     <row r="457" spans="1:2" s="7" customFormat="1">
       <c r="A457" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>9</v>
@@ -5486,7 +5826,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>13</v>
@@ -5500,58 +5840,58 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:2" s="5" customFormat="1"/>
+    <row r="463" spans="1:2" s="6" customFormat="1"/>
     <row r="464" spans="1:2" s="7" customFormat="1">
       <c r="A464" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5578,49 +5918,49 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:2" s="5" customFormat="1"/>
+    <row r="474" spans="1:2" s="6" customFormat="1"/>
     <row r="475" spans="1:2" s="2" customFormat="1"/>
-    <row r="476" spans="1:2" s="5" customFormat="1"/>
-    <row r="477" spans="1:2" s="6" customFormat="1">
-      <c r="A477" s="6" t="s">
-        <v>546</v>
+    <row r="476" spans="1:2" s="6" customFormat="1"/>
+    <row r="477" spans="1:2" s="5" customFormat="1">
+      <c r="A477" s="5" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="478" spans="1:2" s="7" customFormat="1">
       <c r="A478" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5628,7 +5968,7 @@
         <v>133</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5655,76 +5995,556 @@
         <v>17</v>
       </c>
     </row>
+    <row r="487" spans="1:2" s="6" customFormat="1"/>
+    <row r="488" spans="1:2" s="2" customFormat="1"/>
+    <row r="489" spans="1:2" s="6" customFormat="1"/>
+    <row r="490" spans="1:2" s="5" customFormat="1">
+      <c r="A490" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" s="7" customFormat="1">
+      <c r="A491" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" s="6" customFormat="1"/>
+    <row r="513" spans="1:2" s="7" customFormat="1">
+      <c r="A513" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" s="6" customFormat="1"/>
+    <row r="523" spans="1:2" s="7" customFormat="1">
+      <c r="A523" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" s="6" customFormat="1"/>
+    <row r="533" spans="1:2" s="7" customFormat="1">
+      <c r="A533" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" s="6" customFormat="1"/>
+    <row r="547" spans="1:2" s="7" customFormat="1">
+      <c r="A547" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" s="6" customFormat="1"/>
+    <row r="551" spans="1:2" s="7" customFormat="1">
+      <c r="A551" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" s="6" customFormat="1"/>
+    <row r="555" spans="1:2" s="7" customFormat="1">
+      <c r="A555" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" s="6" customFormat="1"/>
+    <row r="559" spans="1:2" s="7" customFormat="1">
+      <c r="A559" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A390:XFD390"/>
-    <mergeCell ref="A384:XFD384"/>
-    <mergeCell ref="A385:XFD385"/>
-    <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
+  <mergeCells count="141">
+    <mergeCell ref="A533:XFD533"/>
+    <mergeCell ref="A546:XFD546"/>
+    <mergeCell ref="A547:XFD547"/>
+    <mergeCell ref="A550:XFD550"/>
+    <mergeCell ref="A551:XFD551"/>
+    <mergeCell ref="A554:XFD554"/>
+    <mergeCell ref="A555:XFD555"/>
+    <mergeCell ref="A558:XFD558"/>
+    <mergeCell ref="A559:XFD559"/>
+    <mergeCell ref="A487:XFD487"/>
+    <mergeCell ref="A489:XFD489"/>
+    <mergeCell ref="A490:XFD490"/>
+    <mergeCell ref="A491:XFD491"/>
+    <mergeCell ref="A512:XFD512"/>
+    <mergeCell ref="A513:XFD513"/>
+    <mergeCell ref="A522:XFD522"/>
+    <mergeCell ref="A523:XFD523"/>
+    <mergeCell ref="A532:XFD532"/>
+    <mergeCell ref="A391:XFD391"/>
+    <mergeCell ref="A392:XFD392"/>
+    <mergeCell ref="A401:XFD401"/>
+    <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A412:XFD412"/>
+    <mergeCell ref="A474:XFD474"/>
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A476:XFD476"/>
+    <mergeCell ref="A477:XFD477"/>
+    <mergeCell ref="A478:XFD478"/>
+    <mergeCell ref="A432:XFD432"/>
+    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A415:XFD415"/>
     <mergeCell ref="A288:XFD288"/>
     <mergeCell ref="A279:XFD279"/>
     <mergeCell ref="A280:XFD280"/>
@@ -5747,39 +6567,80 @@
     <mergeCell ref="A332:XFD332"/>
     <mergeCell ref="A327:XFD327"/>
     <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
     <mergeCell ref="A381:B381"/>
     <mergeCell ref="A388:XFD388"/>
     <mergeCell ref="A372:XFD372"/>
     <mergeCell ref="A377:B377"/>
     <mergeCell ref="A373:B373"/>
     <mergeCell ref="A376:XFD376"/>
-    <mergeCell ref="A416:XFD416"/>
-    <mergeCell ref="A426:XFD426"/>
-    <mergeCell ref="A430:XFD430"/>
-    <mergeCell ref="A476:XFD476"/>
-    <mergeCell ref="A477:XFD477"/>
-    <mergeCell ref="A478:XFD478"/>
-    <mergeCell ref="A432:XFD432"/>
-    <mergeCell ref="A414:XFD414"/>
-    <mergeCell ref="A415:XFD415"/>
-    <mergeCell ref="A391:XFD391"/>
-    <mergeCell ref="A392:XFD392"/>
-    <mergeCell ref="A401:XFD401"/>
-    <mergeCell ref="A402:XFD402"/>
-    <mergeCell ref="A412:XFD412"/>
-    <mergeCell ref="A474:XFD474"/>
-    <mergeCell ref="A441:XFD441"/>
-    <mergeCell ref="A442:XFD442"/>
-    <mergeCell ref="A456:XFD456"/>
-    <mergeCell ref="A457:XFD457"/>
-    <mergeCell ref="A463:XFD463"/>
-    <mergeCell ref="A464:XFD464"/>
-    <mergeCell ref="A433:XFD433"/>
-    <mergeCell ref="A434:XFD434"/>
-    <mergeCell ref="A436:XFD436"/>
-    <mergeCell ref="A437:XFD437"/>
-    <mergeCell ref="A438:XFD438"/>
-    <mergeCell ref="A440:XFD440"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="693">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2164,9 +2165,6 @@
   </si>
   <si>
     <t>contractCode</t>
-  </si>
-  <si>
-    <t>contractCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2292,9 +2290,6 @@
     <t>各分期缴费金额</t>
   </si>
   <si>
-    <t>各分期具体缴费类型标识</t>
-  </si>
-  <si>
     <t>periodNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2441,7 +2436,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>十八、财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费名目标识</t>
+  </si>
+  <si>
+    <t>收费名目编号</t>
+  </si>
+  <si>
+    <t>收费名目名称</t>
+  </si>
+  <si>
+    <t>是否合同收费名目</t>
+  </si>
+  <si>
+    <t>是否资源租赁收费名目</t>
+  </si>
+  <si>
+    <t>费用描述</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用周期性标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体缴费类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isResourceItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isContractItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldVoucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属资源标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次修改用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2549,16 +2718,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2858,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J561"/>
+  <dimension ref="A1:J596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="A559" sqref="A559:XFD559"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="D557" sqref="D557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2870,8 +3039,8 @@
     <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2879,15 +3048,15 @@
       <c r="A2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -2938,9 +3107,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1"/>
-    <row r="10" spans="1:10" s="7" customFormat="1">
-      <c r="A10" s="7" t="s">
+    <row r="9" spans="1:10" s="7" customFormat="1"/>
+    <row r="10" spans="1:10" s="8" customFormat="1">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3048,9 +3217,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="6" customFormat="1"/>
-    <row r="25" spans="1:2" s="7" customFormat="1">
-      <c r="A25" s="7" t="s">
+    <row r="24" spans="1:2" s="5" customFormat="1"/>
+    <row r="25" spans="1:2" s="8" customFormat="1">
+      <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3158,9 +3327,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="6" customFormat="1"/>
-    <row r="40" spans="1:2" s="7" customFormat="1">
-      <c r="A40" s="7" t="s">
+    <row r="39" spans="1:2" s="5" customFormat="1"/>
+    <row r="40" spans="1:2" s="8" customFormat="1">
+      <c r="A40" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3180,9 +3349,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1"/>
-    <row r="44" spans="1:2" s="7" customFormat="1">
-      <c r="A44" s="7" t="s">
+    <row r="43" spans="1:2" s="5" customFormat="1"/>
+    <row r="44" spans="1:2" s="8" customFormat="1">
+      <c r="A44" s="8" t="s">
         <v>555</v>
       </c>
     </row>
@@ -3250,9 +3419,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="6" customFormat="1"/>
-    <row r="54" spans="1:2" s="7" customFormat="1">
-      <c r="A54" s="7" t="s">
+    <row r="53" spans="1:2" s="5" customFormat="1"/>
+    <row r="54" spans="1:2" s="8" customFormat="1">
+      <c r="A54" s="8" t="s">
         <v>556</v>
       </c>
     </row>
@@ -3320,9 +3489,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="6" customFormat="1"/>
-    <row r="64" spans="1:2" s="7" customFormat="1">
-      <c r="A64" s="7" t="s">
+    <row r="63" spans="1:2" s="5" customFormat="1"/>
+    <row r="64" spans="1:2" s="8" customFormat="1">
+      <c r="A64" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3430,9 +3599,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="8" customFormat="1"/>
-    <row r="79" spans="1:2" s="7" customFormat="1">
-      <c r="A79" s="7" t="s">
+    <row r="78" spans="1:2" s="7" customFormat="1"/>
+    <row r="79" spans="1:2" s="8" customFormat="1">
+      <c r="A79" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3477,13 +3646,13 @@
       </c>
     </row>
     <row r="86" spans="1:2" s="2" customFormat="1"/>
-    <row r="88" spans="1:2" s="5" customFormat="1">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:2" s="6" customFormat="1">
+      <c r="A88" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="7" customFormat="1">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:2" s="8" customFormat="1">
+      <c r="A89" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3767,9 +3936,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="6" customFormat="1"/>
-    <row r="126" spans="1:2" s="7" customFormat="1">
-      <c r="A126" s="7" t="s">
+    <row r="125" spans="1:2" s="5" customFormat="1"/>
+    <row r="126" spans="1:2" s="8" customFormat="1">
+      <c r="A126" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3789,9 +3958,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="6" customFormat="1"/>
-    <row r="130" spans="1:2" s="7" customFormat="1">
-      <c r="A130" s="7" t="s">
+    <row r="129" spans="1:2" s="5" customFormat="1"/>
+    <row r="130" spans="1:2" s="8" customFormat="1">
+      <c r="A130" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3875,9 +4044,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="6" customFormat="1"/>
-    <row r="142" spans="1:2" s="7" customFormat="1">
-      <c r="A142" s="7" t="s">
+    <row r="141" spans="1:2" s="5" customFormat="1"/>
+    <row r="142" spans="1:2" s="8" customFormat="1">
+      <c r="A142" s="8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3921,9 +4090,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="6" customFormat="1"/>
-    <row r="149" spans="1:2" s="7" customFormat="1">
-      <c r="A149" s="7" t="s">
+    <row r="148" spans="1:2" s="5" customFormat="1"/>
+    <row r="149" spans="1:2" s="8" customFormat="1">
+      <c r="A149" s="8" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3943,9 +4112,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="6" customFormat="1"/>
-    <row r="153" spans="1:2" s="7" customFormat="1">
-      <c r="A153" s="7" t="s">
+    <row r="152" spans="1:2" s="5" customFormat="1"/>
+    <row r="153" spans="1:2" s="8" customFormat="1">
+      <c r="A153" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3965,9 +4134,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="6" customFormat="1"/>
-    <row r="157" spans="1:2" s="7" customFormat="1">
-      <c r="A157" s="7" t="s">
+    <row r="156" spans="1:2" s="5" customFormat="1"/>
+    <row r="157" spans="1:2" s="8" customFormat="1">
+      <c r="A157" s="8" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3987,9 +4156,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="6" customFormat="1"/>
-    <row r="161" spans="1:2" s="7" customFormat="1">
-      <c r="A161" s="7" t="s">
+    <row r="160" spans="1:2" s="5" customFormat="1"/>
+    <row r="161" spans="1:2" s="8" customFormat="1">
+      <c r="A161" s="8" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4009,9 +4178,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="6" customFormat="1"/>
-    <row r="165" spans="1:2" s="7" customFormat="1">
-      <c r="A165" s="7" t="s">
+    <row r="164" spans="1:2" s="5" customFormat="1"/>
+    <row r="165" spans="1:2" s="8" customFormat="1">
+      <c r="A165" s="8" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4072,14 +4241,14 @@
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="175" spans="1:2" s="6" customFormat="1"/>
-    <row r="176" spans="1:2" s="5" customFormat="1">
-      <c r="A176" s="5" t="s">
+    <row r="175" spans="1:2" s="5" customFormat="1"/>
+    <row r="176" spans="1:2" s="6" customFormat="1">
+      <c r="A176" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="7" customFormat="1">
-      <c r="A177" s="7" t="s">
+    <row r="177" spans="1:2" s="8" customFormat="1">
+      <c r="A177" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4147,9 +4316,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="6" customFormat="1"/>
-    <row r="187" spans="1:2" s="7" customFormat="1">
-      <c r="A187" s="7" t="s">
+    <row r="186" spans="1:2" s="5" customFormat="1"/>
+    <row r="187" spans="1:2" s="8" customFormat="1">
+      <c r="A187" s="8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4241,9 +4410,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="6" customFormat="1"/>
-    <row r="200" spans="1:2" s="7" customFormat="1">
-      <c r="A200" s="7" t="s">
+    <row r="199" spans="1:2" s="5" customFormat="1"/>
+    <row r="200" spans="1:2" s="8" customFormat="1">
+      <c r="A200" s="8" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4295,9 +4464,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="6" customFormat="1"/>
-    <row r="208" spans="1:2" s="7" customFormat="1">
-      <c r="A208" s="7" t="s">
+    <row r="207" spans="1:2" s="5" customFormat="1"/>
+    <row r="208" spans="1:2" s="8" customFormat="1">
+      <c r="A208" s="8" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4325,9 +4494,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="6" customFormat="1"/>
-    <row r="213" spans="1:2" s="7" customFormat="1">
-      <c r="A213" s="7" t="s">
+    <row r="212" spans="1:2" s="5" customFormat="1"/>
+    <row r="213" spans="1:2" s="8" customFormat="1">
+      <c r="A213" s="8" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4347,9 +4516,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="6" customFormat="1"/>
-    <row r="217" spans="1:2" s="7" customFormat="1">
-      <c r="A217" s="7" t="s">
+    <row r="216" spans="1:2" s="5" customFormat="1"/>
+    <row r="217" spans="1:2" s="8" customFormat="1">
+      <c r="A217" s="8" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4369,9 +4538,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="6" customFormat="1"/>
-    <row r="221" spans="1:2" s="7" customFormat="1">
-      <c r="A221" s="7" t="s">
+    <row r="220" spans="1:2" s="5" customFormat="1"/>
+    <row r="221" spans="1:2" s="8" customFormat="1">
+      <c r="A221" s="8" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4391,9 +4560,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="6" customFormat="1"/>
-    <row r="225" spans="1:2" s="7" customFormat="1">
-      <c r="A225" s="7" t="s">
+    <row r="224" spans="1:2" s="5" customFormat="1"/>
+    <row r="225" spans="1:2" s="8" customFormat="1">
+      <c r="A225" s="8" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4414,14 +4583,14 @@
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
-    <row r="230" spans="1:2" s="6" customFormat="1"/>
-    <row r="231" spans="1:2" s="5" customFormat="1">
-      <c r="A231" s="5" t="s">
+    <row r="230" spans="1:2" s="5" customFormat="1"/>
+    <row r="231" spans="1:2" s="6" customFormat="1">
+      <c r="A231" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="7" customFormat="1">
-      <c r="A232" s="7" t="s">
+    <row r="232" spans="1:2" s="8" customFormat="1">
+      <c r="A232" s="8" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4537,9 +4706,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="6" customFormat="1"/>
-    <row r="248" spans="1:2" s="7" customFormat="1">
-      <c r="A248" s="7" t="s">
+    <row r="247" spans="1:2" s="5" customFormat="1"/>
+    <row r="248" spans="1:2" s="8" customFormat="1">
+      <c r="A248" s="8" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4601,14 +4770,14 @@
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="257" spans="1:2" s="2" customFormat="1"/>
-    <row r="258" spans="1:2" s="6" customFormat="1"/>
-    <row r="259" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A259" s="5" t="s">
+    <row r="258" spans="1:2" s="5" customFormat="1"/>
+    <row r="259" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A259" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="7" customFormat="1">
-      <c r="A260" s="7" t="s">
+    <row r="260" spans="1:2" s="8" customFormat="1">
+      <c r="A260" s="8" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4670,7 +4839,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>312</v>
@@ -4678,7 +4847,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>313</v>
@@ -4756,9 +4925,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="6" customFormat="1"/>
-    <row r="280" spans="1:2" s="7" customFormat="1">
-      <c r="A280" s="7" t="s">
+    <row r="279" spans="1:2" s="5" customFormat="1"/>
+    <row r="280" spans="1:2" s="8" customFormat="1">
+      <c r="A280" s="8" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4778,9 +4947,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="6" customFormat="1"/>
-    <row r="284" spans="1:2" s="7" customFormat="1">
-      <c r="A284" s="7" t="s">
+    <row r="283" spans="1:2" s="5" customFormat="1"/>
+    <row r="284" spans="1:2" s="8" customFormat="1">
+      <c r="A284" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4800,9 +4969,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="6" customFormat="1"/>
-    <row r="288" spans="1:2" s="7" customFormat="1">
-      <c r="A288" s="7" t="s">
+    <row r="287" spans="1:2" s="5" customFormat="1"/>
+    <row r="288" spans="1:2" s="8" customFormat="1">
+      <c r="A288" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4872,14 +5041,14 @@
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="298" spans="1:2" s="2" customFormat="1"/>
-    <row r="299" spans="1:2" s="6" customFormat="1"/>
-    <row r="300" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A300" s="5" t="s">
+    <row r="299" spans="1:2" s="5" customFormat="1"/>
+    <row r="300" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A300" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="301" spans="1:2" s="7" customFormat="1">
-      <c r="A301" s="7" t="s">
+    <row r="301" spans="1:2" s="8" customFormat="1">
+      <c r="A301" s="8" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4931,9 +5100,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="6" customFormat="1"/>
-    <row r="309" spans="1:2" s="7" customFormat="1">
-      <c r="A309" s="7" t="s">
+    <row r="308" spans="1:2" s="5" customFormat="1"/>
+    <row r="309" spans="1:2" s="8" customFormat="1">
+      <c r="A309" s="8" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4955,14 +5124,14 @@
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="313" spans="1:2" s="2" customFormat="1"/>
-    <row r="314" spans="1:2" s="6" customFormat="1"/>
-    <row r="315" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A315" s="5" t="s">
+    <row r="314" spans="1:2" s="5" customFormat="1"/>
+    <row r="315" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A315" s="6" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="316" spans="1:2" s="7" customFormat="1">
-      <c r="A316" s="7" t="s">
+    <row r="316" spans="1:2" s="8" customFormat="1">
+      <c r="A316" s="8" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5046,9 +5215,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="6" customFormat="1"/>
-    <row r="328" spans="1:2" s="7" customFormat="1">
-      <c r="A328" s="7" t="s">
+    <row r="327" spans="1:2" s="5" customFormat="1"/>
+    <row r="328" spans="1:2" s="8" customFormat="1">
+      <c r="A328" s="8" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5068,9 +5237,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="6" customFormat="1"/>
-    <row r="332" spans="1:2" s="7" customFormat="1">
-      <c r="A332" s="7" t="s">
+    <row r="331" spans="1:2" s="5" customFormat="1"/>
+    <row r="332" spans="1:2" s="8" customFormat="1">
+      <c r="A332" s="8" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5092,14 +5261,14 @@
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="336" spans="1:2" s="2" customFormat="1"/>
-    <row r="337" spans="1:2" s="6" customFormat="1"/>
-    <row r="338" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A338" s="5" t="s">
+    <row r="337" spans="1:2" s="5" customFormat="1"/>
+    <row r="338" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A338" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="339" spans="1:2" s="7" customFormat="1">
-      <c r="A339" s="7" t="s">
+    <row r="339" spans="1:2" s="8" customFormat="1">
+      <c r="A339" s="8" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5129,25 +5298,25 @@
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="344" spans="1:2" s="2" customFormat="1"/>
-    <row r="345" spans="1:2" s="6" customFormat="1"/>
-    <row r="346" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A346" s="5" t="s">
+    <row r="345" spans="1:2" s="5" customFormat="1"/>
+    <row r="346" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A346" s="6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="347" spans="1:2" s="6" customFormat="1"/>
+    <row r="347" spans="1:2" s="5" customFormat="1"/>
     <row r="348" spans="1:2" s="2" customFormat="1"/>
-    <row r="349" spans="1:2" s="6" customFormat="1"/>
-    <row r="350" spans="1:2" s="5" customFormat="1">
-      <c r="A350" s="5" t="s">
+    <row r="349" spans="1:2" s="5" customFormat="1"/>
+    <row r="350" spans="1:2" s="6" customFormat="1">
+      <c r="A350" s="6" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="7" t="s">
+      <c r="A351" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B351" s="7"/>
+      <c r="B351" s="8"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
@@ -5309,12 +5478,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="372" spans="1:2" s="6" customFormat="1"/>
+    <row r="372" spans="1:2" s="5" customFormat="1"/>
     <row r="373" spans="1:2">
-      <c r="A373" s="7" t="s">
+      <c r="A373" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="B373" s="7"/>
+      <c r="B373" s="8"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
@@ -5332,12 +5501,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="376" spans="1:2" s="6" customFormat="1"/>
+    <row r="376" spans="1:2" s="5" customFormat="1"/>
     <row r="377" spans="1:2">
-      <c r="A377" s="7" t="s">
+      <c r="A377" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B377" s="7"/>
+      <c r="B377" s="8"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
@@ -5355,12 +5524,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="380" spans="1:2" s="6" customFormat="1"/>
+    <row r="380" spans="1:2" s="5" customFormat="1"/>
     <row r="381" spans="1:2">
-      <c r="A381" s="7" t="s">
+      <c r="A381" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B381" s="7"/>
+      <c r="B381" s="8"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
@@ -5378,9 +5547,9 @@
         <v>430</v>
       </c>
     </row>
-    <row r="384" spans="1:2" s="6" customFormat="1"/>
-    <row r="385" spans="1:2" s="7" customFormat="1">
-      <c r="A385" s="7" t="s">
+    <row r="384" spans="1:2" s="5" customFormat="1"/>
+    <row r="385" spans="1:2" s="8" customFormat="1">
+      <c r="A385" s="8" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5400,16 +5569,16 @@
         <v>433</v>
       </c>
     </row>
-    <row r="388" spans="1:2" s="6" customFormat="1"/>
+    <row r="388" spans="1:2" s="5" customFormat="1"/>
     <row r="389" spans="1:2" s="2" customFormat="1"/>
-    <row r="390" spans="1:2" s="6" customFormat="1"/>
-    <row r="391" spans="1:2" s="5" customFormat="1">
-      <c r="A391" s="5" t="s">
+    <row r="390" spans="1:2" s="5" customFormat="1"/>
+    <row r="391" spans="1:2" s="6" customFormat="1">
+      <c r="A391" s="6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="392" spans="1:2" s="7" customFormat="1">
-      <c r="A392" s="7" t="s">
+    <row r="392" spans="1:2" s="8" customFormat="1">
+      <c r="A392" s="8" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5477,9 +5646,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="401" spans="1:2" s="6" customFormat="1"/>
-    <row r="402" spans="1:2" s="7" customFormat="1">
-      <c r="A402" s="7" t="s">
+    <row r="401" spans="1:2" s="5" customFormat="1"/>
+    <row r="402" spans="1:2" s="8" customFormat="1">
+      <c r="A402" s="8" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5555,16 +5724,16 @@
         <v>474</v>
       </c>
     </row>
-    <row r="412" spans="1:2" s="6" customFormat="1"/>
+    <row r="412" spans="1:2" s="5" customFormat="1"/>
     <row r="413" spans="1:2" s="2" customFormat="1"/>
-    <row r="414" spans="1:2" s="6" customFormat="1"/>
-    <row r="415" spans="1:2" s="5" customFormat="1">
-      <c r="A415" s="5" t="s">
+    <row r="414" spans="1:2" s="5" customFormat="1"/>
+    <row r="415" spans="1:2" s="6" customFormat="1">
+      <c r="A415" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="416" spans="1:2" s="7" customFormat="1">
-      <c r="A416" s="7" t="s">
+    <row r="416" spans="1:2" s="8" customFormat="1">
+      <c r="A416" s="8" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5632,8 +5801,8 @@
         <v>474</v>
       </c>
     </row>
-    <row r="426" spans="1:2" s="7" customFormat="1">
-      <c r="A426" s="7" t="s">
+    <row r="426" spans="1:2" s="8" customFormat="1">
+      <c r="A426" s="8" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5661,32 +5830,32 @@
         <v>492</v>
       </c>
     </row>
-    <row r="430" spans="1:2" s="6" customFormat="1"/>
+    <row r="430" spans="1:2" s="5" customFormat="1"/>
     <row r="431" spans="1:2" s="2" customFormat="1"/>
-    <row r="432" spans="1:2" s="6" customFormat="1"/>
-    <row r="433" spans="1:2" s="5" customFormat="1">
-      <c r="A433" s="5" t="s">
+    <row r="432" spans="1:2" s="5" customFormat="1"/>
+    <row r="433" spans="1:2" s="6" customFormat="1">
+      <c r="A433" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="434" spans="1:2" s="6" customFormat="1"/>
+    <row r="434" spans="1:2" s="5" customFormat="1"/>
     <row r="435" spans="1:2" s="2" customFormat="1"/>
-    <row r="436" spans="1:2" s="6" customFormat="1"/>
-    <row r="437" spans="1:2" s="5" customFormat="1">
-      <c r="A437" s="5" t="s">
+    <row r="436" spans="1:2" s="5" customFormat="1"/>
+    <row r="437" spans="1:2" s="6" customFormat="1">
+      <c r="A437" s="6" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="438" spans="1:2" s="6" customFormat="1"/>
+    <row r="438" spans="1:2" s="5" customFormat="1"/>
     <row r="439" spans="1:2" s="2" customFormat="1"/>
-    <row r="440" spans="1:2" s="6" customFormat="1"/>
-    <row r="441" spans="1:2" s="5" customFormat="1">
-      <c r="A441" s="5" t="s">
+    <row r="440" spans="1:2" s="5" customFormat="1"/>
+    <row r="441" spans="1:2" s="6" customFormat="1">
+      <c r="A441" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="442" spans="1:2" s="7" customFormat="1">
-      <c r="A442" s="7" t="s">
+    <row r="442" spans="1:2" s="8" customFormat="1">
+      <c r="A442" s="8" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5794,9 +5963,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="456" spans="1:2" s="6" customFormat="1"/>
-    <row r="457" spans="1:2" s="7" customFormat="1">
-      <c r="A457" s="7" t="s">
+    <row r="456" spans="1:2" s="5" customFormat="1"/>
+    <row r="457" spans="1:2" s="8" customFormat="1">
+      <c r="A457" s="8" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5840,9 +6009,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:2" s="6" customFormat="1"/>
-    <row r="464" spans="1:2" s="7" customFormat="1">
-      <c r="A464" s="7" t="s">
+    <row r="463" spans="1:2" s="5" customFormat="1"/>
+    <row r="464" spans="1:2" s="8" customFormat="1">
+      <c r="A464" s="8" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5918,16 +6087,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:2" s="6" customFormat="1"/>
+    <row r="474" spans="1:2" s="5" customFormat="1"/>
     <row r="475" spans="1:2" s="2" customFormat="1"/>
-    <row r="476" spans="1:2" s="6" customFormat="1"/>
-    <row r="477" spans="1:2" s="5" customFormat="1">
-      <c r="A477" s="5" t="s">
+    <row r="476" spans="1:2" s="5" customFormat="1"/>
+    <row r="477" spans="1:2" s="6" customFormat="1">
+      <c r="A477" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="478" spans="1:2" s="7" customFormat="1">
-      <c r="A478" s="7" t="s">
+    <row r="478" spans="1:2" s="8" customFormat="1">
+      <c r="A478" s="8" t="s">
         <v>554</v>
       </c>
     </row>
@@ -5995,22 +6164,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" spans="1:2" s="6" customFormat="1"/>
+    <row r="487" spans="1:2" s="5" customFormat="1"/>
     <row r="488" spans="1:2" s="2" customFormat="1"/>
-    <row r="489" spans="1:2" s="6" customFormat="1"/>
-    <row r="490" spans="1:2" s="5" customFormat="1">
-      <c r="A490" s="5" t="s">
+    <row r="489" spans="1:2" s="5" customFormat="1"/>
+    <row r="490" spans="1:2" s="6" customFormat="1">
+      <c r="A490" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="491" spans="1:2" s="7" customFormat="1">
-      <c r="A491" s="7" t="s">
+    <row r="491" spans="1:2" s="8" customFormat="1">
+      <c r="A491" s="8" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>558</v>
@@ -6018,7 +6187,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>559</v>
@@ -6026,7 +6195,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>560</v>
@@ -6034,7 +6203,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>88</v>
@@ -6042,7 +6211,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>561</v>
@@ -6050,7 +6219,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>562</v>
@@ -6058,7 +6227,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>563</v>
@@ -6066,7 +6235,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>564</v>
@@ -6074,7 +6243,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>565</v>
@@ -6082,7 +6251,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>566</v>
@@ -6090,7 +6259,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>567</v>
@@ -6098,7 +6267,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>568</v>
@@ -6106,7 +6275,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>569</v>
@@ -6114,7 +6283,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>570</v>
@@ -6122,7 +6291,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>5</v>
@@ -6130,7 +6299,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>571</v>
@@ -6138,7 +6307,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>572</v>
@@ -6146,7 +6315,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>573</v>
@@ -6154,7 +6323,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>574</v>
@@ -6162,16 +6331,16 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="512" spans="1:2" s="6" customFormat="1"/>
-    <row r="513" spans="1:2" s="7" customFormat="1">
-      <c r="A513" s="7" t="s">
-        <v>599</v>
+    <row r="512" spans="1:2" s="5" customFormat="1"/>
+    <row r="513" spans="1:2" s="8" customFormat="1">
+      <c r="A513" s="8" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -6184,23 +6353,23 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>313</v>
@@ -6208,7 +6377,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>314</v>
@@ -6216,32 +6385,32 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="522" spans="1:2" s="6" customFormat="1"/>
-    <row r="523" spans="1:2" s="7" customFormat="1">
-      <c r="A523" s="7" t="s">
-        <v>607</v>
+    <row r="522" spans="1:2" s="5" customFormat="1"/>
+    <row r="523" spans="1:2" s="8" customFormat="1">
+      <c r="A523" s="8" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -6254,39 +6423,39 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>9</v>
@@ -6294,24 +6463,24 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="532" spans="1:2" s="6" customFormat="1"/>
-    <row r="533" spans="1:2" s="7" customFormat="1">
-      <c r="A533" s="7" t="s">
-        <v>625</v>
+    <row r="532" spans="1:2" s="5" customFormat="1"/>
+    <row r="533" spans="1:2" s="8" customFormat="1">
+      <c r="A533" s="8" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -6324,15 +6493,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="3" t="s">
-        <v>44</v>
+        <v>578</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>137</v>
@@ -6340,55 +6509,55 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>9</v>
@@ -6396,149 +6565,428 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
       <c r="A545" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" s="5" customFormat="1"/>
+    <row r="547" spans="1:4" s="8" customFormat="1">
+      <c r="A547" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B545" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" s="6" customFormat="1"/>
-    <row r="547" spans="1:2" s="7" customFormat="1">
-      <c r="A547" s="7" t="s">
+      <c r="B549" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" s="5" customFormat="1"/>
+    <row r="551" spans="1:4" s="8" customFormat="1">
+      <c r="A551" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B552" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
-      <c r="A548" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2">
-      <c r="A549" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" s="6" customFormat="1"/>
-    <row r="551" spans="1:2" s="7" customFormat="1">
-      <c r="A551" s="7" t="s">
+    <row r="553" spans="1:4">
+      <c r="A553" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B553" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
-      <c r="A552" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="B552" s="3" t="s">
+    <row r="554" spans="1:4" s="5" customFormat="1"/>
+    <row r="555" spans="1:4" s="8" customFormat="1">
+      <c r="A555" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="4" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="553" spans="1:2">
-      <c r="A553" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B553" s="3" t="s">
+      <c r="B556" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="4" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" s="6" customFormat="1"/>
-    <row r="555" spans="1:2" s="7" customFormat="1">
-      <c r="A555" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2">
-      <c r="A556" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2">
-      <c r="A557" s="4" t="s">
+      <c r="B557" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B557" s="3" t="s">
+      <c r="D557" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" s="5" customFormat="1"/>
+    <row r="559" spans="1:4" s="8" customFormat="1">
+      <c r="A559" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B560" s="3" t="s">
         <v>645</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" s="6" customFormat="1"/>
-    <row r="559" spans="1:2" s="7" customFormat="1">
-      <c r="A559" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2">
-      <c r="A560" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="B560" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B561" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" s="5" customFormat="1"/>
+    <row r="563" spans="1:2" s="2" customFormat="1"/>
+    <row r="564" spans="1:2" s="5" customFormat="1"/>
+    <row r="565" spans="1:2" s="6" customFormat="1">
+      <c r="A565" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" s="8" customFormat="1">
+      <c r="A566" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B567" s="3" t="s">
         <v>648</v>
       </c>
     </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" s="5" customFormat="1"/>
+    <row r="580" spans="1:2" s="8" customFormat="1">
+      <c r="A580" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" s="5" customFormat="1"/>
+    <row r="594" spans="1:2" s="8" customFormat="1">
+      <c r="A594" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="A533:XFD533"/>
-    <mergeCell ref="A546:XFD546"/>
-    <mergeCell ref="A547:XFD547"/>
-    <mergeCell ref="A550:XFD550"/>
-    <mergeCell ref="A551:XFD551"/>
-    <mergeCell ref="A554:XFD554"/>
-    <mergeCell ref="A555:XFD555"/>
-    <mergeCell ref="A558:XFD558"/>
-    <mergeCell ref="A559:XFD559"/>
-    <mergeCell ref="A487:XFD487"/>
-    <mergeCell ref="A489:XFD489"/>
-    <mergeCell ref="A490:XFD490"/>
-    <mergeCell ref="A491:XFD491"/>
-    <mergeCell ref="A512:XFD512"/>
-    <mergeCell ref="A513:XFD513"/>
-    <mergeCell ref="A522:XFD522"/>
-    <mergeCell ref="A523:XFD523"/>
-    <mergeCell ref="A532:XFD532"/>
-    <mergeCell ref="A391:XFD391"/>
-    <mergeCell ref="A392:XFD392"/>
-    <mergeCell ref="A401:XFD401"/>
-    <mergeCell ref="A402:XFD402"/>
-    <mergeCell ref="A412:XFD412"/>
-    <mergeCell ref="A474:XFD474"/>
-    <mergeCell ref="A441:XFD441"/>
-    <mergeCell ref="A442:XFD442"/>
-    <mergeCell ref="A456:XFD456"/>
-    <mergeCell ref="A457:XFD457"/>
-    <mergeCell ref="A463:XFD463"/>
-    <mergeCell ref="A464:XFD464"/>
-    <mergeCell ref="A433:XFD433"/>
-    <mergeCell ref="A434:XFD434"/>
-    <mergeCell ref="A436:XFD436"/>
-    <mergeCell ref="A437:XFD437"/>
-    <mergeCell ref="A438:XFD438"/>
-    <mergeCell ref="A440:XFD440"/>
-    <mergeCell ref="A416:XFD416"/>
-    <mergeCell ref="A426:XFD426"/>
-    <mergeCell ref="A430:XFD430"/>
+  <mergeCells count="149">
+    <mergeCell ref="A579:XFD579"/>
+    <mergeCell ref="A580:XFD580"/>
+    <mergeCell ref="A593:XFD593"/>
+    <mergeCell ref="A594:XFD594"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A331:XFD331"/>
+    <mergeCell ref="A332:XFD332"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
     <mergeCell ref="A476:XFD476"/>
     <mergeCell ref="A477:XFD477"/>
     <mergeCell ref="A478:XFD478"/>
@@ -6563,84 +7011,49 @@
     <mergeCell ref="A314:XFD314"/>
     <mergeCell ref="A337:XFD337"/>
     <mergeCell ref="A338:XFD338"/>
-    <mergeCell ref="A331:XFD331"/>
-    <mergeCell ref="A332:XFD332"/>
-    <mergeCell ref="A327:XFD327"/>
-    <mergeCell ref="A328:XFD328"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A390:XFD390"/>
-    <mergeCell ref="A384:XFD384"/>
-    <mergeCell ref="A385:XFD385"/>
-    <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A388:XFD388"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A391:XFD391"/>
+    <mergeCell ref="A392:XFD392"/>
+    <mergeCell ref="A401:XFD401"/>
+    <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A412:XFD412"/>
+    <mergeCell ref="A474:XFD474"/>
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A487:XFD487"/>
+    <mergeCell ref="A489:XFD489"/>
+    <mergeCell ref="A490:XFD490"/>
+    <mergeCell ref="A491:XFD491"/>
+    <mergeCell ref="A512:XFD512"/>
+    <mergeCell ref="A513:XFD513"/>
+    <mergeCell ref="A522:XFD522"/>
+    <mergeCell ref="A523:XFD523"/>
+    <mergeCell ref="A532:XFD532"/>
+    <mergeCell ref="A562:XFD562"/>
+    <mergeCell ref="A564:XFD564"/>
+    <mergeCell ref="A565:XFD565"/>
+    <mergeCell ref="A566:XFD566"/>
+    <mergeCell ref="A533:XFD533"/>
+    <mergeCell ref="A546:XFD546"/>
+    <mergeCell ref="A547:XFD547"/>
+    <mergeCell ref="A550:XFD550"/>
+    <mergeCell ref="A551:XFD551"/>
+    <mergeCell ref="A554:XFD554"/>
+    <mergeCell ref="A555:XFD555"/>
+    <mergeCell ref="A558:XFD558"/>
+    <mergeCell ref="A559:XFD559"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="698">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2466,55 +2466,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>费用周期性标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体缴费类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属资源标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isContractItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isResourceItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enterTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enterUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用周期性标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体缴费类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPeriodTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isResourceItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContractItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2522,95 +2594,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>voucherCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oldVoucherCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>merchantId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resourceId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属资源标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次修改用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>缴费起始日期</t>
+  </si>
+  <si>
+    <t>缴费截止日期</t>
+  </si>
+  <si>
+    <t>tradeBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeEndDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2721,16 +2739,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3029,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="D557" sqref="D557"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="A589" sqref="A589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3039,24 +3057,24 @@
     <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -3107,9 +3125,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1"/>
-    <row r="10" spans="1:10" s="8" customFormat="1">
-      <c r="A10" s="8" t="s">
+    <row r="9" spans="1:10" s="9" customFormat="1"/>
+    <row r="10" spans="1:10" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3218,8 +3236,8 @@
       </c>
     </row>
     <row r="24" spans="1:2" s="5" customFormat="1"/>
-    <row r="25" spans="1:2" s="8" customFormat="1">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:2" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3328,8 +3346,8 @@
       </c>
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1"/>
-    <row r="40" spans="1:2" s="8" customFormat="1">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:2" s="6" customFormat="1">
+      <c r="A40" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3350,8 +3368,8 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="5" customFormat="1"/>
-    <row r="44" spans="1:2" s="8" customFormat="1">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:2" s="6" customFormat="1">
+      <c r="A44" s="6" t="s">
         <v>555</v>
       </c>
     </row>
@@ -3420,8 +3438,8 @@
       </c>
     </row>
     <row r="53" spans="1:2" s="5" customFormat="1"/>
-    <row r="54" spans="1:2" s="8" customFormat="1">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:2" s="6" customFormat="1">
+      <c r="A54" s="6" t="s">
         <v>556</v>
       </c>
     </row>
@@ -3490,8 +3508,8 @@
       </c>
     </row>
     <row r="63" spans="1:2" s="5" customFormat="1"/>
-    <row r="64" spans="1:2" s="8" customFormat="1">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:2" s="6" customFormat="1">
+      <c r="A64" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3599,9 +3617,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="7" customFormat="1"/>
-    <row r="79" spans="1:2" s="8" customFormat="1">
-      <c r="A79" s="8" t="s">
+    <row r="78" spans="1:2" s="9" customFormat="1"/>
+    <row r="79" spans="1:2" s="6" customFormat="1">
+      <c r="A79" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3646,13 +3664,13 @@
       </c>
     </row>
     <row r="86" spans="1:2" s="2" customFormat="1"/>
-    <row r="88" spans="1:2" s="6" customFormat="1">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:2" s="7" customFormat="1">
+      <c r="A88" s="7" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="8" customFormat="1">
-      <c r="A89" s="8" t="s">
+    <row r="89" spans="1:2" s="6" customFormat="1">
+      <c r="A89" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3937,8 +3955,8 @@
       </c>
     </row>
     <row r="125" spans="1:2" s="5" customFormat="1"/>
-    <row r="126" spans="1:2" s="8" customFormat="1">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:2" s="6" customFormat="1">
+      <c r="A126" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3959,8 +3977,8 @@
       </c>
     </row>
     <row r="129" spans="1:2" s="5" customFormat="1"/>
-    <row r="130" spans="1:2" s="8" customFormat="1">
-      <c r="A130" s="8" t="s">
+    <row r="130" spans="1:2" s="6" customFormat="1">
+      <c r="A130" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4045,8 +4063,8 @@
       </c>
     </row>
     <row r="141" spans="1:2" s="5" customFormat="1"/>
-    <row r="142" spans="1:2" s="8" customFormat="1">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:2" s="6" customFormat="1">
+      <c r="A142" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4091,8 +4109,8 @@
       </c>
     </row>
     <row r="148" spans="1:2" s="5" customFormat="1"/>
-    <row r="149" spans="1:2" s="8" customFormat="1">
-      <c r="A149" s="8" t="s">
+    <row r="149" spans="1:2" s="6" customFormat="1">
+      <c r="A149" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4113,8 +4131,8 @@
       </c>
     </row>
     <row r="152" spans="1:2" s="5" customFormat="1"/>
-    <row r="153" spans="1:2" s="8" customFormat="1">
-      <c r="A153" s="8" t="s">
+    <row r="153" spans="1:2" s="6" customFormat="1">
+      <c r="A153" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4135,8 +4153,8 @@
       </c>
     </row>
     <row r="156" spans="1:2" s="5" customFormat="1"/>
-    <row r="157" spans="1:2" s="8" customFormat="1">
-      <c r="A157" s="8" t="s">
+    <row r="157" spans="1:2" s="6" customFormat="1">
+      <c r="A157" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4157,8 +4175,8 @@
       </c>
     </row>
     <row r="160" spans="1:2" s="5" customFormat="1"/>
-    <row r="161" spans="1:2" s="8" customFormat="1">
-      <c r="A161" s="8" t="s">
+    <row r="161" spans="1:2" s="6" customFormat="1">
+      <c r="A161" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4179,8 +4197,8 @@
       </c>
     </row>
     <row r="164" spans="1:2" s="5" customFormat="1"/>
-    <row r="165" spans="1:2" s="8" customFormat="1">
-      <c r="A165" s="8" t="s">
+    <row r="165" spans="1:2" s="6" customFormat="1">
+      <c r="A165" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4242,13 +4260,13 @@
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
     <row r="175" spans="1:2" s="5" customFormat="1"/>
-    <row r="176" spans="1:2" s="6" customFormat="1">
-      <c r="A176" s="6" t="s">
+    <row r="176" spans="1:2" s="7" customFormat="1">
+      <c r="A176" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="8" customFormat="1">
-      <c r="A177" s="8" t="s">
+    <row r="177" spans="1:2" s="6" customFormat="1">
+      <c r="A177" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4317,8 +4335,8 @@
       </c>
     </row>
     <row r="186" spans="1:2" s="5" customFormat="1"/>
-    <row r="187" spans="1:2" s="8" customFormat="1">
-      <c r="A187" s="8" t="s">
+    <row r="187" spans="1:2" s="6" customFormat="1">
+      <c r="A187" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4411,8 +4429,8 @@
       </c>
     </row>
     <row r="199" spans="1:2" s="5" customFormat="1"/>
-    <row r="200" spans="1:2" s="8" customFormat="1">
-      <c r="A200" s="8" t="s">
+    <row r="200" spans="1:2" s="6" customFormat="1">
+      <c r="A200" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4465,8 +4483,8 @@
       </c>
     </row>
     <row r="207" spans="1:2" s="5" customFormat="1"/>
-    <row r="208" spans="1:2" s="8" customFormat="1">
-      <c r="A208" s="8" t="s">
+    <row r="208" spans="1:2" s="6" customFormat="1">
+      <c r="A208" s="6" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4495,8 +4513,8 @@
       </c>
     </row>
     <row r="212" spans="1:2" s="5" customFormat="1"/>
-    <row r="213" spans="1:2" s="8" customFormat="1">
-      <c r="A213" s="8" t="s">
+    <row r="213" spans="1:2" s="6" customFormat="1">
+      <c r="A213" s="6" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4517,8 +4535,8 @@
       </c>
     </row>
     <row r="216" spans="1:2" s="5" customFormat="1"/>
-    <row r="217" spans="1:2" s="8" customFormat="1">
-      <c r="A217" s="8" t="s">
+    <row r="217" spans="1:2" s="6" customFormat="1">
+      <c r="A217" s="6" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4539,8 +4557,8 @@
       </c>
     </row>
     <row r="220" spans="1:2" s="5" customFormat="1"/>
-    <row r="221" spans="1:2" s="8" customFormat="1">
-      <c r="A221" s="8" t="s">
+    <row r="221" spans="1:2" s="6" customFormat="1">
+      <c r="A221" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4561,8 +4579,8 @@
       </c>
     </row>
     <row r="224" spans="1:2" s="5" customFormat="1"/>
-    <row r="225" spans="1:2" s="8" customFormat="1">
-      <c r="A225" s="8" t="s">
+    <row r="225" spans="1:2" s="6" customFormat="1">
+      <c r="A225" s="6" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4584,13 +4602,13 @@
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
     <row r="230" spans="1:2" s="5" customFormat="1"/>
-    <row r="231" spans="1:2" s="6" customFormat="1">
-      <c r="A231" s="6" t="s">
+    <row r="231" spans="1:2" s="7" customFormat="1">
+      <c r="A231" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="8" customFormat="1">
-      <c r="A232" s="8" t="s">
+    <row r="232" spans="1:2" s="6" customFormat="1">
+      <c r="A232" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4707,8 +4725,8 @@
       </c>
     </row>
     <row r="247" spans="1:2" s="5" customFormat="1"/>
-    <row r="248" spans="1:2" s="8" customFormat="1">
-      <c r="A248" s="8" t="s">
+    <row r="248" spans="1:2" s="6" customFormat="1">
+      <c r="A248" s="6" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4771,13 +4789,13 @@
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="257" spans="1:2" s="2" customFormat="1"/>
     <row r="258" spans="1:2" s="5" customFormat="1"/>
-    <row r="259" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A259" s="6" t="s">
+    <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A259" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="8" customFormat="1">
-      <c r="A260" s="8" t="s">
+    <row r="260" spans="1:2" s="6" customFormat="1">
+      <c r="A260" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4926,8 +4944,8 @@
       </c>
     </row>
     <row r="279" spans="1:2" s="5" customFormat="1"/>
-    <row r="280" spans="1:2" s="8" customFormat="1">
-      <c r="A280" s="8" t="s">
+    <row r="280" spans="1:2" s="6" customFormat="1">
+      <c r="A280" s="6" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4948,8 +4966,8 @@
       </c>
     </row>
     <row r="283" spans="1:2" s="5" customFormat="1"/>
-    <row r="284" spans="1:2" s="8" customFormat="1">
-      <c r="A284" s="8" t="s">
+    <row r="284" spans="1:2" s="6" customFormat="1">
+      <c r="A284" s="6" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4970,8 +4988,8 @@
       </c>
     </row>
     <row r="287" spans="1:2" s="5" customFormat="1"/>
-    <row r="288" spans="1:2" s="8" customFormat="1">
-      <c r="A288" s="8" t="s">
+    <row r="288" spans="1:2" s="6" customFormat="1">
+      <c r="A288" s="6" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5042,13 +5060,13 @@
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="298" spans="1:2" s="2" customFormat="1"/>
     <row r="299" spans="1:2" s="5" customFormat="1"/>
-    <row r="300" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A300" s="6" t="s">
+    <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A300" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="301" spans="1:2" s="8" customFormat="1">
-      <c r="A301" s="8" t="s">
+    <row r="301" spans="1:2" s="6" customFormat="1">
+      <c r="A301" s="6" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5101,8 +5119,8 @@
       </c>
     </row>
     <row r="308" spans="1:2" s="5" customFormat="1"/>
-    <row r="309" spans="1:2" s="8" customFormat="1">
-      <c r="A309" s="8" t="s">
+    <row r="309" spans="1:2" s="6" customFormat="1">
+      <c r="A309" s="6" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5125,13 +5143,13 @@
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="313" spans="1:2" s="2" customFormat="1"/>
     <row r="314" spans="1:2" s="5" customFormat="1"/>
-    <row r="315" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A315" s="6" t="s">
+    <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A315" s="7" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="316" spans="1:2" s="8" customFormat="1">
-      <c r="A316" s="8" t="s">
+    <row r="316" spans="1:2" s="6" customFormat="1">
+      <c r="A316" s="6" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5216,8 +5234,8 @@
       </c>
     </row>
     <row r="327" spans="1:2" s="5" customFormat="1"/>
-    <row r="328" spans="1:2" s="8" customFormat="1">
-      <c r="A328" s="8" t="s">
+    <row r="328" spans="1:2" s="6" customFormat="1">
+      <c r="A328" s="6" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5238,8 +5256,8 @@
       </c>
     </row>
     <row r="331" spans="1:2" s="5" customFormat="1"/>
-    <row r="332" spans="1:2" s="8" customFormat="1">
-      <c r="A332" s="8" t="s">
+    <row r="332" spans="1:2" s="6" customFormat="1">
+      <c r="A332" s="6" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5262,13 +5280,13 @@
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="336" spans="1:2" s="2" customFormat="1"/>
     <row r="337" spans="1:2" s="5" customFormat="1"/>
-    <row r="338" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A338" s="6" t="s">
+    <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A338" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="339" spans="1:2" s="8" customFormat="1">
-      <c r="A339" s="8" t="s">
+    <row r="339" spans="1:2" s="6" customFormat="1">
+      <c r="A339" s="6" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5299,24 +5317,24 @@
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="344" spans="1:2" s="2" customFormat="1"/>
     <row r="345" spans="1:2" s="5" customFormat="1"/>
-    <row r="346" spans="1:2" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A346" s="6" t="s">
+    <row r="346" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A346" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="347" spans="1:2" s="5" customFormat="1"/>
     <row r="348" spans="1:2" s="2" customFormat="1"/>
     <row r="349" spans="1:2" s="5" customFormat="1"/>
-    <row r="350" spans="1:2" s="6" customFormat="1">
-      <c r="A350" s="6" t="s">
+    <row r="350" spans="1:2" s="7" customFormat="1">
+      <c r="A350" s="7" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="8" t="s">
+      <c r="A351" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B351" s="8"/>
+      <c r="B351" s="6"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
@@ -5480,10 +5498,10 @@
     </row>
     <row r="372" spans="1:2" s="5" customFormat="1"/>
     <row r="373" spans="1:2">
-      <c r="A373" s="8" t="s">
+      <c r="A373" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B373" s="8"/>
+      <c r="B373" s="6"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
@@ -5503,10 +5521,10 @@
     </row>
     <row r="376" spans="1:2" s="5" customFormat="1"/>
     <row r="377" spans="1:2">
-      <c r="A377" s="8" t="s">
+      <c r="A377" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B377" s="8"/>
+      <c r="B377" s="6"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
@@ -5526,10 +5544,10 @@
     </row>
     <row r="380" spans="1:2" s="5" customFormat="1"/>
     <row r="381" spans="1:2">
-      <c r="A381" s="8" t="s">
+      <c r="A381" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B381" s="8"/>
+      <c r="B381" s="6"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
@@ -5548,8 +5566,8 @@
       </c>
     </row>
     <row r="384" spans="1:2" s="5" customFormat="1"/>
-    <row r="385" spans="1:2" s="8" customFormat="1">
-      <c r="A385" s="8" t="s">
+    <row r="385" spans="1:2" s="6" customFormat="1">
+      <c r="A385" s="6" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5572,13 +5590,13 @@
     <row r="388" spans="1:2" s="5" customFormat="1"/>
     <row r="389" spans="1:2" s="2" customFormat="1"/>
     <row r="390" spans="1:2" s="5" customFormat="1"/>
-    <row r="391" spans="1:2" s="6" customFormat="1">
-      <c r="A391" s="6" t="s">
+    <row r="391" spans="1:2" s="7" customFormat="1">
+      <c r="A391" s="7" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="392" spans="1:2" s="8" customFormat="1">
-      <c r="A392" s="8" t="s">
+    <row r="392" spans="1:2" s="6" customFormat="1">
+      <c r="A392" s="6" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5647,8 +5665,8 @@
       </c>
     </row>
     <row r="401" spans="1:2" s="5" customFormat="1"/>
-    <row r="402" spans="1:2" s="8" customFormat="1">
-      <c r="A402" s="8" t="s">
+    <row r="402" spans="1:2" s="6" customFormat="1">
+      <c r="A402" s="6" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5727,13 +5745,13 @@
     <row r="412" spans="1:2" s="5" customFormat="1"/>
     <row r="413" spans="1:2" s="2" customFormat="1"/>
     <row r="414" spans="1:2" s="5" customFormat="1"/>
-    <row r="415" spans="1:2" s="6" customFormat="1">
-      <c r="A415" s="6" t="s">
+    <row r="415" spans="1:2" s="7" customFormat="1">
+      <c r="A415" s="7" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="416" spans="1:2" s="8" customFormat="1">
-      <c r="A416" s="8" t="s">
+    <row r="416" spans="1:2" s="6" customFormat="1">
+      <c r="A416" s="6" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5801,8 +5819,8 @@
         <v>474</v>
       </c>
     </row>
-    <row r="426" spans="1:2" s="8" customFormat="1">
-      <c r="A426" s="8" t="s">
+    <row r="426" spans="1:2" s="6" customFormat="1">
+      <c r="A426" s="6" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5833,29 +5851,29 @@
     <row r="430" spans="1:2" s="5" customFormat="1"/>
     <row r="431" spans="1:2" s="2" customFormat="1"/>
     <row r="432" spans="1:2" s="5" customFormat="1"/>
-    <row r="433" spans="1:2" s="6" customFormat="1">
-      <c r="A433" s="6" t="s">
+    <row r="433" spans="1:2" s="7" customFormat="1">
+      <c r="A433" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:2" s="5" customFormat="1"/>
     <row r="435" spans="1:2" s="2" customFormat="1"/>
     <row r="436" spans="1:2" s="5" customFormat="1"/>
-    <row r="437" spans="1:2" s="6" customFormat="1">
-      <c r="A437" s="6" t="s">
+    <row r="437" spans="1:2" s="7" customFormat="1">
+      <c r="A437" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="438" spans="1:2" s="5" customFormat="1"/>
     <row r="439" spans="1:2" s="2" customFormat="1"/>
     <row r="440" spans="1:2" s="5" customFormat="1"/>
-    <row r="441" spans="1:2" s="6" customFormat="1">
-      <c r="A441" s="6" t="s">
+    <row r="441" spans="1:2" s="7" customFormat="1">
+      <c r="A441" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="442" spans="1:2" s="8" customFormat="1">
-      <c r="A442" s="8" t="s">
+    <row r="442" spans="1:2" s="6" customFormat="1">
+      <c r="A442" s="6" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5964,8 +5982,8 @@
       </c>
     </row>
     <row r="456" spans="1:2" s="5" customFormat="1"/>
-    <row r="457" spans="1:2" s="8" customFormat="1">
-      <c r="A457" s="8" t="s">
+    <row r="457" spans="1:2" s="6" customFormat="1">
+      <c r="A457" s="6" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6010,8 +6028,8 @@
       </c>
     </row>
     <row r="463" spans="1:2" s="5" customFormat="1"/>
-    <row r="464" spans="1:2" s="8" customFormat="1">
-      <c r="A464" s="8" t="s">
+    <row r="464" spans="1:2" s="6" customFormat="1">
+      <c r="A464" s="6" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6090,13 +6108,13 @@
     <row r="474" spans="1:2" s="5" customFormat="1"/>
     <row r="475" spans="1:2" s="2" customFormat="1"/>
     <row r="476" spans="1:2" s="5" customFormat="1"/>
-    <row r="477" spans="1:2" s="6" customFormat="1">
-      <c r="A477" s="6" t="s">
+    <row r="477" spans="1:2" s="7" customFormat="1">
+      <c r="A477" s="7" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="478" spans="1:2" s="8" customFormat="1">
-      <c r="A478" s="8" t="s">
+    <row r="478" spans="1:2" s="6" customFormat="1">
+      <c r="A478" s="6" t="s">
         <v>554</v>
       </c>
     </row>
@@ -6167,13 +6185,13 @@
     <row r="487" spans="1:2" s="5" customFormat="1"/>
     <row r="488" spans="1:2" s="2" customFormat="1"/>
     <row r="489" spans="1:2" s="5" customFormat="1"/>
-    <row r="490" spans="1:2" s="6" customFormat="1">
-      <c r="A490" s="6" t="s">
+    <row r="490" spans="1:2" s="7" customFormat="1">
+      <c r="A490" s="7" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="491" spans="1:2" s="8" customFormat="1">
-      <c r="A491" s="8" t="s">
+    <row r="491" spans="1:2" s="6" customFormat="1">
+      <c r="A491" s="6" t="s">
         <v>576</v>
       </c>
     </row>
@@ -6338,8 +6356,8 @@
       </c>
     </row>
     <row r="512" spans="1:2" s="5" customFormat="1"/>
-    <row r="513" spans="1:2" s="8" customFormat="1">
-      <c r="A513" s="8" t="s">
+    <row r="513" spans="1:2" s="6" customFormat="1">
+      <c r="A513" s="6" t="s">
         <v>598</v>
       </c>
     </row>
@@ -6408,8 +6426,8 @@
       </c>
     </row>
     <row r="522" spans="1:2" s="5" customFormat="1"/>
-    <row r="523" spans="1:2" s="8" customFormat="1">
-      <c r="A523" s="8" t="s">
+    <row r="523" spans="1:2" s="6" customFormat="1">
+      <c r="A523" s="6" t="s">
         <v>606</v>
       </c>
     </row>
@@ -6450,7 +6468,7 @@
         <v>613</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -6478,8 +6496,8 @@
       </c>
     </row>
     <row r="532" spans="1:2" s="5" customFormat="1"/>
-    <row r="533" spans="1:2" s="8" customFormat="1">
-      <c r="A533" s="8" t="s">
+    <row r="533" spans="1:2" s="6" customFormat="1">
+      <c r="A533" s="6" t="s">
         <v>623</v>
       </c>
     </row>
@@ -6580,8 +6598,8 @@
       </c>
     </row>
     <row r="546" spans="1:4" s="5" customFormat="1"/>
-    <row r="547" spans="1:4" s="8" customFormat="1">
-      <c r="A547" s="8" t="s">
+    <row r="547" spans="1:4" s="6" customFormat="1">
+      <c r="A547" s="6" t="s">
         <v>636</v>
       </c>
     </row>
@@ -6602,8 +6620,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" s="5" customFormat="1"/>
-    <row r="551" spans="1:4" s="8" customFormat="1">
-      <c r="A551" s="8" t="s">
+    <row r="551" spans="1:4" s="6" customFormat="1">
+      <c r="A551" s="6" t="s">
         <v>637</v>
       </c>
     </row>
@@ -6624,8 +6642,8 @@
       </c>
     </row>
     <row r="554" spans="1:4" s="5" customFormat="1"/>
-    <row r="555" spans="1:4" s="8" customFormat="1">
-      <c r="A555" s="8" t="s">
+    <row r="555" spans="1:4" s="6" customFormat="1">
+      <c r="A555" s="6" t="s">
         <v>644</v>
       </c>
     </row>
@@ -6645,13 +6663,13 @@
         <v>643</v>
       </c>
       <c r="D557" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
     </row>
     <row r="558" spans="1:4" s="5" customFormat="1"/>
-    <row r="559" spans="1:4" s="8" customFormat="1">
-      <c r="A559" s="8" t="s">
-        <v>663</v>
+    <row r="559" spans="1:4" s="6" customFormat="1">
+      <c r="A559" s="6" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -6673,19 +6691,19 @@
     <row r="562" spans="1:2" s="5" customFormat="1"/>
     <row r="563" spans="1:2" s="2" customFormat="1"/>
     <row r="564" spans="1:2" s="5" customFormat="1"/>
-    <row r="565" spans="1:2" s="6" customFormat="1">
-      <c r="A565" s="6" t="s">
+    <row r="565" spans="1:2" s="7" customFormat="1">
+      <c r="A565" s="7" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="566" spans="1:2" s="8" customFormat="1">
-      <c r="A566" s="8" t="s">
-        <v>668</v>
+    <row r="566" spans="1:2" s="6" customFormat="1">
+      <c r="A566" s="6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="3" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>648</v>
@@ -6693,7 +6711,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="3" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>649</v>
@@ -6701,7 +6719,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="3" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>650</v>
@@ -6709,7 +6727,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="3" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>651</v>
@@ -6717,7 +6735,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="3" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>652</v>
@@ -6725,15 +6743,15 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="3" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="3" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>653</v>
@@ -6741,15 +6759,15 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="3" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="3" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>655</v>
@@ -6757,7 +6775,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="3" t="s">
-        <v>595</v>
+        <v>684</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>9</v>
@@ -6765,7 +6783,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="3" t="s">
-        <v>596</v>
+        <v>685</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>621</v>
@@ -6773,61 +6791,61 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="3" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="B578" s="4" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="579" spans="1:2" s="5" customFormat="1"/>
-    <row r="580" spans="1:2" s="8" customFormat="1">
-      <c r="A580" s="8" t="s">
-        <v>669</v>
+    <row r="580" spans="1:2" s="6" customFormat="1">
+      <c r="A580" s="6" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="3" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="3" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="3" t="s">
-        <v>577</v>
+        <v>690</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="4" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="4" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="3" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>648</v>
@@ -6835,26 +6853,26 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="4" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="3" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="3" t="s">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -6862,7 +6880,7 @@
         <v>8</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>681</v>
+        <v>9</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -6870,99 +6888,103 @@
         <v>12</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>682</v>
+        <v>14</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="3" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
     </row>
     <row r="593" spans="1:2" s="5" customFormat="1"/>
-    <row r="594" spans="1:2" s="8" customFormat="1">
-      <c r="A594" s="8" t="s">
-        <v>687</v>
+    <row r="594" spans="1:2" s="6" customFormat="1">
+      <c r="A594" s="6" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="3" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="3" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="A579:XFD579"/>
-    <mergeCell ref="A580:XFD580"/>
-    <mergeCell ref="A593:XFD593"/>
-    <mergeCell ref="A594:XFD594"/>
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A390:XFD390"/>
-    <mergeCell ref="A384:XFD384"/>
-    <mergeCell ref="A385:XFD385"/>
-    <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A388:XFD388"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:XFD376"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A522:XFD522"/>
+    <mergeCell ref="A523:XFD523"/>
+    <mergeCell ref="A532:XFD532"/>
+    <mergeCell ref="A562:XFD562"/>
+    <mergeCell ref="A564:XFD564"/>
+    <mergeCell ref="A565:XFD565"/>
+    <mergeCell ref="A566:XFD566"/>
+    <mergeCell ref="A533:XFD533"/>
+    <mergeCell ref="A546:XFD546"/>
+    <mergeCell ref="A547:XFD547"/>
+    <mergeCell ref="A550:XFD550"/>
+    <mergeCell ref="A551:XFD551"/>
+    <mergeCell ref="A554:XFD554"/>
+    <mergeCell ref="A555:XFD555"/>
+    <mergeCell ref="A558:XFD558"/>
+    <mergeCell ref="A559:XFD559"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A487:XFD487"/>
+    <mergeCell ref="A489:XFD489"/>
+    <mergeCell ref="A490:XFD490"/>
+    <mergeCell ref="A491:XFD491"/>
+    <mergeCell ref="A512:XFD512"/>
+    <mergeCell ref="A513:XFD513"/>
+    <mergeCell ref="A474:XFD474"/>
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A415:XFD415"/>
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A287:XFD287"/>
+    <mergeCell ref="A339:XFD339"/>
+    <mergeCell ref="A345:XFD345"/>
+    <mergeCell ref="A315:XFD315"/>
+    <mergeCell ref="A316:XFD316"/>
+    <mergeCell ref="A299:XFD299"/>
+    <mergeCell ref="A300:XFD300"/>
+    <mergeCell ref="A301:XFD301"/>
+    <mergeCell ref="A308:XFD308"/>
+    <mergeCell ref="A309:XFD309"/>
+    <mergeCell ref="A314:XFD314"/>
+    <mergeCell ref="A337:XFD337"/>
+    <mergeCell ref="A338:XFD338"/>
+    <mergeCell ref="A391:XFD391"/>
+    <mergeCell ref="A392:XFD392"/>
+    <mergeCell ref="A401:XFD401"/>
+    <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A412:XFD412"/>
     <mergeCell ref="A331:XFD331"/>
     <mergeCell ref="A332:XFD332"/>
     <mergeCell ref="A327:XFD327"/>
@@ -6987,73 +7009,69 @@
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A53:XFD53"/>
     <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A579:XFD579"/>
+    <mergeCell ref="A580:XFD580"/>
+    <mergeCell ref="A593:XFD593"/>
+    <mergeCell ref="A594:XFD594"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
     <mergeCell ref="A476:XFD476"/>
     <mergeCell ref="A477:XFD477"/>
     <mergeCell ref="A478:XFD478"/>
     <mergeCell ref="A432:XFD432"/>
     <mergeCell ref="A414:XFD414"/>
-    <mergeCell ref="A415:XFD415"/>
-    <mergeCell ref="A288:XFD288"/>
-    <mergeCell ref="A279:XFD279"/>
-    <mergeCell ref="A280:XFD280"/>
-    <mergeCell ref="A283:XFD283"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="A287:XFD287"/>
-    <mergeCell ref="A339:XFD339"/>
-    <mergeCell ref="A345:XFD345"/>
-    <mergeCell ref="A315:XFD315"/>
-    <mergeCell ref="A316:XFD316"/>
-    <mergeCell ref="A299:XFD299"/>
-    <mergeCell ref="A300:XFD300"/>
-    <mergeCell ref="A301:XFD301"/>
-    <mergeCell ref="A308:XFD308"/>
-    <mergeCell ref="A309:XFD309"/>
-    <mergeCell ref="A314:XFD314"/>
-    <mergeCell ref="A337:XFD337"/>
-    <mergeCell ref="A338:XFD338"/>
-    <mergeCell ref="A391:XFD391"/>
-    <mergeCell ref="A392:XFD392"/>
-    <mergeCell ref="A401:XFD401"/>
-    <mergeCell ref="A402:XFD402"/>
-    <mergeCell ref="A412:XFD412"/>
-    <mergeCell ref="A474:XFD474"/>
-    <mergeCell ref="A441:XFD441"/>
-    <mergeCell ref="A442:XFD442"/>
-    <mergeCell ref="A456:XFD456"/>
-    <mergeCell ref="A457:XFD457"/>
-    <mergeCell ref="A463:XFD463"/>
-    <mergeCell ref="A464:XFD464"/>
-    <mergeCell ref="A433:XFD433"/>
-    <mergeCell ref="A434:XFD434"/>
-    <mergeCell ref="A436:XFD436"/>
-    <mergeCell ref="A437:XFD437"/>
-    <mergeCell ref="A438:XFD438"/>
-    <mergeCell ref="A440:XFD440"/>
-    <mergeCell ref="A416:XFD416"/>
-    <mergeCell ref="A426:XFD426"/>
-    <mergeCell ref="A430:XFD430"/>
-    <mergeCell ref="A487:XFD487"/>
-    <mergeCell ref="A489:XFD489"/>
-    <mergeCell ref="A490:XFD490"/>
-    <mergeCell ref="A491:XFD491"/>
-    <mergeCell ref="A512:XFD512"/>
-    <mergeCell ref="A513:XFD513"/>
-    <mergeCell ref="A522:XFD522"/>
-    <mergeCell ref="A523:XFD523"/>
-    <mergeCell ref="A532:XFD532"/>
-    <mergeCell ref="A562:XFD562"/>
-    <mergeCell ref="A564:XFD564"/>
-    <mergeCell ref="A565:XFD565"/>
-    <mergeCell ref="A566:XFD566"/>
-    <mergeCell ref="A533:XFD533"/>
-    <mergeCell ref="A546:XFD546"/>
-    <mergeCell ref="A547:XFD547"/>
-    <mergeCell ref="A550:XFD550"/>
-    <mergeCell ref="A551:XFD551"/>
-    <mergeCell ref="A554:XFD554"/>
-    <mergeCell ref="A555:XFD555"/>
-    <mergeCell ref="A558:XFD558"/>
-    <mergeCell ref="A559:XFD559"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="695">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2518,117 +2518,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>财务交易记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isContractItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isResourceItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldVoucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费起始日期</t>
+  </si>
+  <si>
+    <t>缴费截止日期</t>
+  </si>
+  <si>
+    <t>tradeBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContractItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isResourceItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPeriodTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldVoucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费起始日期</t>
-  </si>
-  <si>
-    <t>缴费截止日期</t>
-  </si>
-  <si>
-    <t>tradeBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeEndDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3048,7 +3036,7 @@
   <dimension ref="A1:J596"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
-      <selection activeCell="A589" sqref="A589"/>
+      <selection activeCell="A596" sqref="A596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6663,7 +6651,7 @@
         <v>643</v>
       </c>
       <c r="D557" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="558" spans="1:4" s="5" customFormat="1"/>
@@ -6703,7 +6691,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>648</v>
@@ -6711,7 +6699,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>649</v>
@@ -6719,7 +6707,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>650</v>
@@ -6727,7 +6715,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>651</v>
@@ -6735,7 +6723,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>652</v>
@@ -6743,7 +6731,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>656</v>
@@ -6751,7 +6739,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>653</v>
@@ -6759,7 +6747,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>667</v>
@@ -6767,7 +6755,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>655</v>
@@ -6775,7 +6763,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>9</v>
@@ -6783,7 +6771,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>621</v>
@@ -6791,7 +6779,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B578" s="4" t="s">
         <v>654</v>
@@ -6800,12 +6788,12 @@
     <row r="579" spans="1:2" s="5" customFormat="1"/>
     <row r="580" spans="1:2" s="6" customFormat="1">
       <c r="A580" s="6" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>660</v>
@@ -6813,7 +6801,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B582" s="4" t="s">
         <v>661</v>
@@ -6821,7 +6809,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>662</v>
@@ -6829,7 +6817,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B584" s="4" t="s">
         <v>663</v>
@@ -6837,7 +6825,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="4" t="s">
-        <v>692</v>
+        <v>580</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>664</v>
@@ -6853,7 +6841,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B587" s="4" t="s">
         <v>665</v>
@@ -6861,18 +6849,18 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -6902,23 +6890,23 @@
     <row r="593" spans="1:2" s="5" customFormat="1"/>
     <row r="594" spans="1:2" s="6" customFormat="1">
       <c r="A594" s="6" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B595" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="B595" s="4" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="3" t="s">
-        <v>673</v>
+        <v>60</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="696">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,408 +267,2342 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>摊位标准费用款项名称</t>
+  </si>
+  <si>
+    <t>标准费用收取方式</t>
+  </si>
+  <si>
+    <t>1.Layout_Function - 层功能类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Resource_Status - 资源(含摊位)状态信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brf</t>
+  </si>
+  <si>
+    <t>标准费用款项标识</t>
+  </si>
+  <si>
+    <t>实际收取的费用</t>
+  </si>
+  <si>
+    <t>最近一次编辑用户时间</t>
+  </si>
+  <si>
+    <t>7.Resource - (非摊位)资源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId</t>
+  </si>
+  <si>
+    <t>resourceCode</t>
+  </si>
+  <si>
+    <t>resourceName</t>
+  </si>
+  <si>
+    <t>resourceTypeId</t>
+  </si>
+  <si>
+    <t>resourceTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standardFee</t>
+  </si>
+  <si>
+    <t>realFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源标识</t>
+  </si>
+  <si>
+    <t>资源编号</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>资源类型标识</t>
+  </si>
+  <si>
+    <t>资源层次位置信息</t>
+  </si>
+  <si>
+    <t>标准费用</t>
+  </si>
+  <si>
+    <t>实际收取费用</t>
+  </si>
+  <si>
+    <t>8.ResourceType - 资源类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceTypeName</t>
+  </si>
+  <si>
+    <t>资源类型名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一、Resource - 资源模块 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Merchant - 商户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>managerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileTelephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessNatureCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainCategoryCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainBrandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agentLevelCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registeredCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employeeSizeTypeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infoSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netBusinessFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guarantyMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sincerityMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessLicence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stateTaxRegistrationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxRegistrationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalPersonName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalPersonIdCard</t>
+  </si>
+  <si>
+    <t>legalPersonCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>securityApproveStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyApproveStatusId</t>
+  </si>
+  <si>
+    <t>decorationApproveStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户标识</t>
+  </si>
+  <si>
+    <t>商户编号</t>
+  </si>
+  <si>
+    <t>商户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户助记符</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系移动电话</t>
+  </si>
+  <si>
+    <t>联系固定电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户网址</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商信息的来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业性质编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销级别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司员工规模编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否具备网商能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴纳的保证金金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴纳的诚意金金额</t>
+  </si>
+  <si>
+    <t>营业执照编号</t>
+  </si>
+  <si>
+    <t>国税登记号</t>
+  </si>
+  <si>
+    <t>地税登记号</t>
+  </si>
+  <si>
+    <t>开户银行</t>
+  </si>
+  <si>
+    <t>银行账户</t>
+  </si>
+  <si>
+    <t>法人代表姓名</t>
+  </si>
+  <si>
+    <t>法人代表电话</t>
+  </si>
+  <si>
+    <t>法人代表证编号</t>
+  </si>
+  <si>
+    <t>商户状态</t>
+  </si>
+  <si>
+    <t>最后一次修改用户编号</t>
+  </si>
+  <si>
+    <t>最后一次修改时间</t>
+  </si>
+  <si>
+    <t>2.Rl_Merchant_Brand - 商户品牌关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Merchant_Cert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcId</t>
+  </si>
+  <si>
+    <t>mcTypeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcEndDate</t>
+  </si>
+  <si>
+    <t>mcAwardUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户证照标识</t>
+  </si>
+  <si>
+    <t>商户证照类型编号</t>
+  </si>
+  <si>
+    <t>商户证照编号</t>
+  </si>
+  <si>
+    <t>证照生效起始日期</t>
+  </si>
+  <si>
+    <t>证照生效截止日期</t>
+  </si>
+  <si>
+    <t>证照颁发单位</t>
+  </si>
+  <si>
+    <t>4.Merchant_Cert_Type - 商户证照类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证照类型编号</t>
+  </si>
+  <si>
+    <t>证照类型名称</t>
+  </si>
+  <si>
+    <t>natureCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业性质名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Merchant_Status - 商户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.Business_Nature - 企业性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.Employee_Size_Type - 公司员工规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工规模编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工规模名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.Agent_Level_Code - 商户代理级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理级别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理级别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.Merchant_Daily_Patrol_Record - 商户日常巡查记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adprId</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡查记录标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、Merchant - 用户模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Department - 部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeDeptId</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.User - 用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Role - 角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色标识</t>
+  </si>
+  <si>
+    <t>角色标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Authority - 权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorityCode</t>
+  </si>
+  <si>
+    <t>authorityName</t>
+  </si>
+  <si>
+    <t>authorityModuleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Authority_Module - 权限模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.User_Status - 用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.Rl_User_Role - 用户、角色映射关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.Rl_Role_Authority - 角色、权限映射关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Assistant - 营业员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantCertCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员证件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Assistant_Daily_Patrol_Record - 针对营业员的日常巡查记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、Assistant - 营业员模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、Sale - 销售模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+  </si>
+  <si>
+    <t>voucherTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>customerTel</t>
+  </si>
+  <si>
+    <t>customerAddress</t>
+  </si>
+  <si>
+    <t>realCapital</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>payStatusOfDeposit</t>
+  </si>
+  <si>
+    <t>payStatusOfTotalCapital</t>
+  </si>
+  <si>
+    <t>saleTime</t>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boothId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者电话</t>
+  </si>
+  <si>
+    <t>消费者地址</t>
+  </si>
+  <si>
+    <t>商品金额总计</t>
+  </si>
+  <si>
+    <t>优惠金额</t>
+  </si>
+  <si>
+    <t>实际金额</t>
+  </si>
+  <si>
+    <t>定金金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金缴纳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全款缴纳状态</t>
+  </si>
+  <si>
+    <t>销售记录发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Sale_Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+  </si>
+  <si>
+    <t>2.Pay_Status - 缴纳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型名称</t>
+  </si>
+  <si>
+    <t>typeId</t>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Voucher_Type - 单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Sale_Record_Detail - 销售记录详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录标识</t>
+  </si>
+  <si>
+    <t>所属单据号</t>
+  </si>
+  <si>
+    <t>能定位到某商品的编号</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+  </si>
+  <si>
+    <t>recordId</t>
+  </si>
+  <si>
+    <t>goodsCode</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>六、Message - 消息模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendUserCode</t>
+  </si>
+  <si>
+    <t>messageText</t>
+  </si>
+  <si>
+    <t>messageStatusId</t>
+  </si>
+  <si>
+    <t>消息标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Message_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectBaseFee</t>
+  </si>
+  <si>
+    <t>projectBeginDate</t>
+  </si>
+  <si>
+    <t>projectEndDate</t>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectStatusId</t>
+  </si>
+  <si>
+    <t>项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发起方或组织方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目门槛费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次编辑用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Project - 项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Rl_Project_Merchant - 项目商户关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Project_Status - 项目状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七、Project - 项目模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八、System - 系统模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.System_Parameter - 系统参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九、Query - 统计查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十、AfterSale - 售后模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的销售单据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理问题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理意见备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结果备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrIdeaRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrResultRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.After_Sale_Record - 售后记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeBeginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条款编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的营业员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.After_Sale_Record_Status - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.After_Sale_Record_Type - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldAsrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">voucherCode  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsCategroyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商品品类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一、Goods - 商品模块（含品类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品品类 - Goods_Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcName</t>
+  </si>
+  <si>
+    <t>gcGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeGcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPrice</t>
+  </si>
+  <si>
+    <t>2.商品 - Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类名称</t>
+  </si>
+  <si>
+    <t>品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类所属级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品类别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标签价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二、Evaluate - 评价管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商户评价 - Merchant_Evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meSonItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该子评价项目占当前父评价项目的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meParentItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三、商户管理（并入招商模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四、日志管理（暂时不涉及）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五、品牌管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandCode</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>brandSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessLicense</t>
+  </si>
+  <si>
+    <t>registeredCapital</t>
+  </si>
+  <si>
+    <t>taxRegistrationNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalPersonNo</t>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌助记符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.品牌信息 - Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.品牌认证类型 - Brand_Cert_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.品牌认证 - Brand_Cert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照注册号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务登记证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证类型标识</t>
+  </si>
+  <si>
+    <t>认证类型名称</t>
+  </si>
+  <si>
+    <t>品牌认证标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六、合同模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板标识</t>
+  </si>
+  <si>
+    <t>合同模板编号</t>
+  </si>
+  <si>
+    <t>合同模板文本之存储路径</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctId</t>
+  </si>
+  <si>
+    <t>ctCode</t>
+  </si>
+  <si>
+    <t>ctName</t>
+  </si>
+  <si>
+    <t>storagePath</t>
+  </si>
+  <si>
+    <t>1.合同模板 - Contract_Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十七、合同管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型标识</t>
+  </si>
+  <si>
+    <t>项目标识</t>
+  </si>
+  <si>
+    <t>合同期限</t>
+  </si>
+  <si>
+    <t>合同签订日期</t>
+  </si>
+  <si>
+    <t>合同起始日期</t>
+  </si>
+  <si>
+    <t>合同截止日期</t>
+  </si>
+  <si>
+    <t>合同费用总计</t>
+  </si>
+  <si>
+    <t>优惠费用总计</t>
+  </si>
+  <si>
+    <t>实际费用总计</t>
+  </si>
+  <si>
+    <t>合同缴费周期方式类型标识</t>
+  </si>
+  <si>
+    <t>合同分期次数</t>
+  </si>
+  <si>
+    <t>登记合同的用户编号</t>
+  </si>
+  <si>
+    <t>登记时间</t>
+  </si>
+  <si>
+    <t>最近一次的用户编号</t>
+  </si>
+  <si>
+    <t>最近一次的编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态标识</t>
+  </si>
+  <si>
+    <t>1.合同基本信息 - Contract_Basic_Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signingDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discountAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.合同收费明细信息 - Contract_Charge_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务收费名目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收金额</t>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.合同缴费方式明细信息 - Contract_PayMode_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各分期序号</t>
+  </si>
+  <si>
+    <t>各分期的截止日期</t>
+  </si>
+  <si>
+    <t>各分期缴费金额</t>
+  </si>
+  <si>
+    <t>periodNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payModeTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请类型</t>
+  </si>
+  <si>
+    <t>提交申请日期</t>
+  </si>
+  <si>
+    <t>申请合同终止的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续的截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同终止、延续的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.合同延续、终止申请 - Contract_Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyFinishDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费方式标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.合同缴费方式 - PayMode_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.合同类型 - Contract_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.合同状态 - Contract_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费周期类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费周期类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八、财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费名目标识</t>
+  </si>
+  <si>
+    <t>收费名目编号</t>
+  </si>
+  <si>
+    <t>收费名目名称</t>
+  </si>
+  <si>
+    <t>是否合同收费名目</t>
+  </si>
+  <si>
+    <t>是否资源租赁收费名目</t>
+  </si>
+  <si>
+    <t>费用描述</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用周期性标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体缴费类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属资源标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isContractItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isResourceItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldVoucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费起始日期</t>
+  </si>
+  <si>
+    <t>缴费截止日期</t>
+  </si>
+  <si>
+    <t>tradeBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>摊位标准费用款项标识</t>
-  </si>
-  <si>
-    <t>摊位标准费用款项名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>摊位标准费用</t>
-  </si>
-  <si>
-    <t>标准费用收取方式</t>
-  </si>
-  <si>
-    <t>1.Layout_Function - 层功能类型信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.Resource_Status - 资源(含摊位)状态信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际收费款项标识</t>
-  </si>
-  <si>
-    <t>标准费用款项标识</t>
-  </si>
-  <si>
-    <t>实际收取的费用</t>
-  </si>
-  <si>
-    <t>最近一次编辑用户时间</t>
-  </si>
-  <si>
-    <t>7.Resource - (非摊位)资源信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId</t>
-  </si>
-  <si>
-    <t>resourceCode</t>
-  </si>
-  <si>
-    <t>resourceName</t>
-  </si>
-  <si>
-    <t>resourceTypeId</t>
-  </si>
-  <si>
-    <t>resourceTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>standardFee</t>
-  </si>
-  <si>
-    <t>realFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源标识</t>
-  </si>
-  <si>
-    <t>资源编号</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-  </si>
-  <si>
-    <t>资源类型标识</t>
-  </si>
-  <si>
-    <t>资源层次位置信息</t>
-  </si>
-  <si>
-    <t>标准费用</t>
-  </si>
-  <si>
-    <t>实际收取费用</t>
-  </si>
-  <si>
-    <t>8.ResourceType - 资源类型信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceTypeName</t>
-  </si>
-  <si>
-    <t>资源类型名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一、Resource - 资源模块 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Merchant - 商户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantSymbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>managerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileTelephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>telephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>website</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessNatureCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainCategoryCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainBrandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agentLevelCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registeredCapital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employeeSizeTypeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infoSource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netBusinessFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guarantyMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sincerityMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessLicence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stateTaxRegistrationCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taxRegistrationCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalPersonName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalPersonIdCard</t>
-  </si>
-  <si>
-    <t>legalPersonCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>securityApproveStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propertyApproveStatusId</t>
-  </si>
-  <si>
-    <t>decorationApproveStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户标识</t>
-  </si>
-  <si>
-    <t>商户编号</t>
-  </si>
-  <si>
-    <t>商户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户助记符</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系移动电话</t>
-  </si>
-  <si>
-    <t>联系固定电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户网址</t>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主营品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主营品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商信息的来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业性质编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销级别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司员工规模编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否具备网商能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴纳的保证金金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴纳的诚意金金额</t>
-  </si>
-  <si>
-    <t>营业执照编号</t>
-  </si>
-  <si>
-    <t>国税登记号</t>
-  </si>
-  <si>
-    <t>地税登记号</t>
-  </si>
-  <si>
-    <t>开户银行</t>
-  </si>
-  <si>
-    <t>银行账户</t>
-  </si>
-  <si>
-    <t>法人代表姓名</t>
-  </si>
-  <si>
-    <t>法人代表电话</t>
-  </si>
-  <si>
-    <t>法人代表证编号</t>
-  </si>
-  <si>
-    <t>商户状态</t>
-  </si>
-  <si>
-    <t>安保状态</t>
-  </si>
-  <si>
-    <t>物业状态</t>
-  </si>
-  <si>
-    <t>装修状态</t>
-  </si>
-  <si>
-    <t>最后一次修改用户编号</t>
-  </si>
-  <si>
-    <t>最后一次修改时间</t>
-  </si>
-  <si>
-    <t>2.Rl_Merchant_Brand - 商户品牌关联信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Merchant_Cert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcId</t>
-  </si>
-  <si>
-    <t>mcTypeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcEndDate</t>
-  </si>
-  <si>
-    <t>mcAwardUnit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -676,1947 +2610,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商户证照标识</t>
-  </si>
-  <si>
-    <t>商户证照类型编号</t>
-  </si>
-  <si>
-    <t>商户证照编号</t>
-  </si>
-  <si>
-    <t>证照生效起始日期</t>
-  </si>
-  <si>
-    <t>证照生效截止日期</t>
-  </si>
-  <si>
-    <t>证照颁发单位</t>
-  </si>
-  <si>
-    <t>4.Merchant_Cert_Type - 商户证照类型信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证照类型编号</t>
-  </si>
-  <si>
-    <t>证照类型名称</t>
-  </si>
-  <si>
-    <t>natureCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>natureName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业性质名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Merchant_Status - 商户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.Business_Nature - 企业性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.Employee_Size_Type - 公司员工规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工规模编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工规模名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.Agent_Level_Code - 商户代理级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理级别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理级别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.Merchant_Daily_Patrol_Record - 商户日常巡查记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adprId</t>
-  </si>
-  <si>
-    <t>ruleCode</t>
-  </si>
-  <si>
-    <t>ruleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡查记录标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反条例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三、Merchant - 用户模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Department - 部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptGradeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upGradeDeptId</t>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门级别序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级部门标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.User - 用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userCode</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastLoginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次登录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Role - 角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleName</t>
-  </si>
-  <si>
-    <t>角色标识</t>
-  </si>
-  <si>
-    <t>角色标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.Authority - 权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorityCode</t>
-  </si>
-  <si>
-    <t>authorityName</t>
-  </si>
-  <si>
-    <t>authorityModuleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限模块编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Authority_Module - 权限模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.User_Status - 用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.Rl_User_Role - 用户、角色映射关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.Rl_Role_Authority - 角色、权限映射关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Assistant - 营业员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantCertCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员证件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇佣起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇佣截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Assistant_Daily_Patrol_Record - 针对营业员的日常巡查记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四、Assistant - 营业员模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五、Sale - 销售模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-  </si>
-  <si>
-    <t>voucherTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerName</t>
-  </si>
-  <si>
-    <t>customerTel</t>
-  </si>
-  <si>
-    <t>customerAddress</t>
-  </si>
-  <si>
-    <t>realCapital</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>payStatusOfDeposit</t>
-  </si>
-  <si>
-    <t>payStatusOfTotalCapital</t>
-  </si>
-  <si>
-    <t>saleTime</t>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boothId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者电话</t>
-  </si>
-  <si>
-    <t>消费者地址</t>
-  </si>
-  <si>
-    <t>商品金额总计</t>
-  </si>
-  <si>
-    <t>优惠金额</t>
-  </si>
-  <si>
-    <t>实际金额</t>
-  </si>
-  <si>
-    <t>定金金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定金缴纳状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全款缴纳状态</t>
-  </si>
-  <si>
-    <t>销售记录发生时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Sale_Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-  </si>
-  <si>
-    <t>2.Pay_Status - 缴纳状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型名称</t>
-  </si>
-  <si>
-    <t>typeId</t>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Voucher_Type - 单据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.Sale_Record_Detail - 销售记录详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录标识</t>
-  </si>
-  <si>
-    <t>所属单据号</t>
-  </si>
-  <si>
-    <t>能定位到某商品的编号</t>
-  </si>
-  <si>
-    <t>商品单价</t>
-  </si>
-  <si>
-    <t>商品数量</t>
-  </si>
-  <si>
-    <t>recordId</t>
-  </si>
-  <si>
-    <t>goodsCode</t>
-  </si>
-  <si>
-    <t>unitPrice</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>六、Message - 消息模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendUserCode</t>
-  </si>
-  <si>
-    <t>messageText</t>
-  </si>
-  <si>
-    <t>messageStatusId</t>
-  </si>
-  <si>
-    <t>消息标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送者编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受者编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Message_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectBaseFee</t>
-  </si>
-  <si>
-    <t>projectBeginDate</t>
-  </si>
-  <si>
-    <t>projectEndDate</t>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectStatusId</t>
-  </si>
-  <si>
-    <t>项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目发起方或组织方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目门槛费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次编辑用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Project - 项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Rl_Project_Merchant - 项目商户关联信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Project_Status - 项目状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七、Project - 项目模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八、System - 系统模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.System_Parameter - 系统参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九、Query - 统计查询模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十、AfterSale - 售后模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的销售单据编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理起始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原售后记录标识（适用于售后回访）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理问题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理意见备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结果备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrIdeaRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrResultRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.After_Sale_Record - 售后记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeBeginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeEndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反条款编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的营业员名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.After_Sale_Record_Status - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.After_Sale_Record_Type - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldAsrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">voucherCode  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsCategroyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商品品类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一、Goods - 商品模块（含品类）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.商品品类 - Goods_Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcName</t>
-  </si>
-  <si>
-    <t>gcGradeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upGradeGcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsPrice</t>
-  </si>
-  <si>
-    <t>2.商品 - Goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类名称</t>
-  </si>
-  <si>
-    <t>品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类所属级别序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品类别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标签价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二、Evaluate - 评价管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.商户评价 - Merchant_Evaluate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meSonItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该子评价项目占当前父评价项目的权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父评价项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子评价项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meParentItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三、商户管理（并入招商模块）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十四、日志管理（暂时不涉及）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十五、品牌管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandCode</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>brandSymbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessLicense</t>
-  </si>
-  <si>
-    <t>registeredCapital</t>
-  </si>
-  <si>
-    <t>taxRegistrationNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalPersonNo</t>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌助记符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.品牌信息 - Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.品牌认证类型 - Brand_Cert_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.品牌认证 - Brand_Cert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照注册号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务登记证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证类型标识</t>
-  </si>
-  <si>
-    <t>认证类型名称</t>
-  </si>
-  <si>
-    <t>品牌认证标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十六、合同模板管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板标识</t>
-  </si>
-  <si>
-    <t>合同模板编号</t>
-  </si>
-  <si>
-    <t>合同模板文本之存储路径</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctId</t>
-  </si>
-  <si>
-    <t>ctCode</t>
-  </si>
-  <si>
-    <t>ctName</t>
-  </si>
-  <si>
-    <t>storagePath</t>
-  </si>
-  <si>
-    <t>1.合同模板 - Contract_Template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.Booth_Real_Fee - 摊位实际收费款项信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十七、合同管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型标识</t>
-  </si>
-  <si>
-    <t>项目标识</t>
-  </si>
-  <si>
-    <t>合同期限</t>
-  </si>
-  <si>
-    <t>合同签订日期</t>
-  </si>
-  <si>
-    <t>合同起始日期</t>
-  </si>
-  <si>
-    <t>合同截止日期</t>
-  </si>
-  <si>
-    <t>合同费用总计</t>
-  </si>
-  <si>
-    <t>优惠费用总计</t>
-  </si>
-  <si>
-    <t>实际费用总计</t>
-  </si>
-  <si>
-    <t>合同缴费周期方式类型标识</t>
-  </si>
-  <si>
-    <t>合同分期次数</t>
-  </si>
-  <si>
-    <t>登记合同的用户编号</t>
-  </si>
-  <si>
-    <t>登记时间</t>
-  </si>
-  <si>
-    <t>最近一次的用户编号</t>
-  </si>
-  <si>
-    <t>最近一次的编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态标识</t>
-  </si>
-  <si>
-    <t>1.合同基本信息 - Contract_Basic_Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signingDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCapital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discountAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPeriodTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.合同收费明细信息 - Contract_Charge_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务收费名目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收金额</t>
-  </si>
-  <si>
-    <t>最后一次编辑用户编号</t>
-  </si>
-  <si>
-    <t>最后一次编辑时间</t>
-  </si>
-  <si>
-    <t>chargeItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.合同缴费方式明细信息 - Contract_PayMode_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各分期序号</t>
-  </si>
-  <si>
-    <t>各分期的截止日期</t>
-  </si>
-  <si>
-    <t>各分期缴费金额</t>
-  </si>
-  <si>
-    <t>periodNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payModeTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请类型</t>
-  </si>
-  <si>
-    <t>提交申请日期</t>
-  </si>
-  <si>
-    <t>申请合同终止的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续的截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同终止、延续的原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.合同延续、终止申请 - Contract_Apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyFinishDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费方式标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费方式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.合同缴费方式 - PayMode_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.合同类型 - Contract_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.合同状态 - Contract_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费周期类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费周期类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八、财务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费名目标识</t>
-  </si>
-  <si>
-    <t>收费名目编号</t>
-  </si>
-  <si>
-    <t>收费名目名称</t>
-  </si>
-  <si>
-    <t>是否合同收费名目</t>
-  </si>
-  <si>
-    <t>是否资源租赁收费名目</t>
-  </si>
-  <si>
-    <t>费用描述</t>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用周期性标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体缴费类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属资源标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContractItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isResourceItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPeriodTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldVoucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费起始日期</t>
-  </si>
-  <si>
-    <t>缴费截止日期</t>
-  </si>
-  <si>
-    <t>tradeBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
+    <t>物业状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安保状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原售后记录标识（适用于投诉回访）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3035,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
-      <selection activeCell="A596" sqref="A596"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3047,12 +3057,12 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3336,7 +3346,7 @@
     <row r="39" spans="1:2" s="5" customFormat="1"/>
     <row r="40" spans="1:2" s="6" customFormat="1">
       <c r="A40" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3358,7 +3368,7 @@
     <row r="43" spans="1:2" s="5" customFormat="1"/>
     <row r="44" spans="1:2" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3366,7 +3376,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>68</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3382,7 +3392,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3390,7 +3400,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3398,7 +3408,7 @@
         <v>67</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3428,7 +3438,7 @@
     <row r="53" spans="1:2" s="5" customFormat="1"/>
     <row r="54" spans="1:2" s="6" customFormat="1">
       <c r="A54" s="6" t="s">
-        <v>556</v>
+        <v>691</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3436,7 +3446,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>75</v>
+        <v>689</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3452,7 +3462,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3465,10 +3475,10 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3484,12 +3494,12 @@
         <v>11</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>15</v>
+        <v>690</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>17</v>
@@ -3498,39 +3508,39 @@
     <row r="63" spans="1:2" s="5" customFormat="1"/>
     <row r="64" spans="1:2" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3538,23 +3548,23 @@
         <v>28</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3567,7 +3577,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>61</v>
@@ -3608,23 +3618,23 @@
     <row r="78" spans="1:2" s="9" customFormat="1"/>
     <row r="79" spans="1:2" s="6" customFormat="1">
       <c r="A79" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3654,273 +3664,273 @@
     <row r="86" spans="1:2" s="2" customFormat="1"/>
     <row r="88" spans="1:2" s="7" customFormat="1">
       <c r="A88" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1">
       <c r="A89" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>166</v>
+        <v>693</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>167</v>
+        <v>692</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>168</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>5</v>
@@ -3928,24 +3938,24 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="5" customFormat="1"/>
     <row r="126" spans="1:2" s="6" customFormat="1">
       <c r="A126" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3953,29 +3963,29 @@
         <v>44</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="5" customFormat="1"/>
     <row r="130" spans="1:2" s="6" customFormat="1">
       <c r="A130" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3983,52 +3993,52 @@
         <v>44</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>9</v>
@@ -4036,7 +4046,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>13</v>
@@ -4044,7 +4054,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>17</v>
@@ -4053,28 +4063,28 @@
     <row r="141" spans="1:2" s="5" customFormat="1"/>
     <row r="142" spans="1:2" s="6" customFormat="1">
       <c r="A142" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>9</v>
@@ -4082,7 +4092,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>13</v>
@@ -4090,7 +4100,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>17</v>
@@ -4099,305 +4109,305 @@
     <row r="148" spans="1:2" s="5" customFormat="1"/>
     <row r="149" spans="1:2" s="6" customFormat="1">
       <c r="A149" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="5" customFormat="1"/>
     <row r="153" spans="1:2" s="6" customFormat="1">
       <c r="A153" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="5" customFormat="1"/>
     <row r="157" spans="1:2" s="6" customFormat="1">
       <c r="A157" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:2" s="5" customFormat="1"/>
     <row r="161" spans="1:2" s="6" customFormat="1">
       <c r="A161" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="164" spans="1:2" s="5" customFormat="1"/>
     <row r="165" spans="1:2" s="6" customFormat="1">
       <c r="A165" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
     <row r="175" spans="1:2" s="5" customFormat="1"/>
     <row r="176" spans="1:2" s="7" customFormat="1">
       <c r="A176" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:2" s="6" customFormat="1">
       <c r="A177" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:2" s="5" customFormat="1"/>
     <row r="187" spans="1:2" s="6" customFormat="1">
       <c r="A187" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4405,53 +4415,53 @@
         <v>11</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="5" customFormat="1"/>
     <row r="200" spans="1:2" s="6" customFormat="1">
       <c r="A200" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4459,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4467,287 +4477,287 @@
         <v>15</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:2" s="5" customFormat="1"/>
     <row r="208" spans="1:2" s="6" customFormat="1">
       <c r="A208" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="212" spans="1:2" s="5" customFormat="1"/>
     <row r="213" spans="1:2" s="6" customFormat="1">
       <c r="A213" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="216" spans="1:2" s="5" customFormat="1"/>
     <row r="217" spans="1:2" s="6" customFormat="1">
       <c r="A217" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="5" customFormat="1"/>
     <row r="221" spans="1:2" s="6" customFormat="1">
       <c r="A221" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:2" s="5" customFormat="1"/>
     <row r="225" spans="1:2" s="6" customFormat="1">
       <c r="A225" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
     <row r="230" spans="1:2" s="5" customFormat="1"/>
     <row r="231" spans="1:2" s="7" customFormat="1">
       <c r="A231" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="6" customFormat="1">
       <c r="A232" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="247" spans="1:2" s="5" customFormat="1"/>
     <row r="248" spans="1:2" s="6" customFormat="1">
       <c r="A248" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4755,23 +4765,23 @@
         <v>7</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
@@ -4779,28 +4789,28 @@
     <row r="258" spans="1:2" s="5" customFormat="1"/>
     <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="6" customFormat="1">
       <c r="A260" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4808,12 +4818,12 @@
         <v>44</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>49</v>
@@ -4821,90 +4831,90 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4920,105 +4930,105 @@
         <v>11</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="5" customFormat="1"/>
     <row r="280" spans="1:2" s="6" customFormat="1">
       <c r="A280" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="5" customFormat="1"/>
     <row r="284" spans="1:2" s="6" customFormat="1">
       <c r="A284" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="5" customFormat="1"/>
     <row r="288" spans="1:2" s="6" customFormat="1">
       <c r="A288" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5042,7 +5052,7 @@
         <v>15</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
@@ -5050,52 +5060,52 @@
     <row r="299" spans="1:2" s="5" customFormat="1"/>
     <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="1:2" s="6" customFormat="1">
       <c r="A301" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5109,23 +5119,23 @@
     <row r="308" spans="1:2" s="5" customFormat="1"/>
     <row r="309" spans="1:2" s="6" customFormat="1">
       <c r="A309" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
@@ -5133,68 +5143,68 @@
     <row r="314" spans="1:2" s="5" customFormat="1"/>
     <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="316" spans="1:2" s="6" customFormat="1">
       <c r="A316" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5202,67 +5212,67 @@
         <v>7</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:2" s="5" customFormat="1"/>
     <row r="328" spans="1:2" s="6" customFormat="1">
       <c r="A328" s="6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="1:2" s="5" customFormat="1"/>
     <row r="332" spans="1:2" s="6" customFormat="1">
       <c r="A332" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
@@ -5270,36 +5280,36 @@
     <row r="337" spans="1:2" s="5" customFormat="1"/>
     <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A338" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="6" customFormat="1">
       <c r="A339" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
@@ -5307,7 +5317,7 @@
     <row r="345" spans="1:2" s="5" customFormat="1"/>
     <row r="346" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A346" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="347" spans="1:2" s="5" customFormat="1"/>
@@ -5315,157 +5325,157 @@
     <row r="349" spans="1:2" s="5" customFormat="1"/>
     <row r="350" spans="1:2" s="7" customFormat="1">
       <c r="A350" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B351" s="6"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>415</v>
+        <v>695</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5473,106 +5483,106 @@
         <v>12</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="372" spans="1:2" s="5" customFormat="1"/>
     <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B373" s="6"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="5" customFormat="1"/>
     <row r="377" spans="1:2">
       <c r="A377" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B377" s="6"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="380" spans="1:2" s="5" customFormat="1"/>
     <row r="381" spans="1:2">
       <c r="A381" s="6" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B381" s="6"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="384" spans="1:2" s="5" customFormat="1"/>
     <row r="385" spans="1:2" s="6" customFormat="1">
       <c r="A385" s="6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="388" spans="1:2" s="5" customFormat="1"/>
@@ -5580,60 +5590,60 @@
     <row r="390" spans="1:2" s="5" customFormat="1"/>
     <row r="391" spans="1:2" s="7" customFormat="1">
       <c r="A391" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="6" customFormat="1">
       <c r="A392" s="6" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5641,7 +5651,7 @@
         <v>11</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5649,61 +5659,61 @@
         <v>15</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="5" customFormat="1"/>
     <row r="402" spans="1:2" s="6" customFormat="1">
       <c r="A402" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5711,7 +5721,7 @@
         <v>7</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5719,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5727,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="412" spans="1:2" s="5" customFormat="1"/>
@@ -5735,105 +5745,105 @@
     <row r="414" spans="1:2" s="5" customFormat="1"/>
     <row r="415" spans="1:2" s="7" customFormat="1">
       <c r="A415" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="6" customFormat="1">
       <c r="A416" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="426" spans="1:2" s="6" customFormat="1">
       <c r="A426" s="6" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="3" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="3" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="430" spans="1:2" s="5" customFormat="1"/>
@@ -5841,7 +5851,7 @@
     <row r="432" spans="1:2" s="5" customFormat="1"/>
     <row r="433" spans="1:2" s="7" customFormat="1">
       <c r="A433" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="434" spans="1:2" s="5" customFormat="1"/>
@@ -5849,7 +5859,7 @@
     <row r="436" spans="1:2" s="5" customFormat="1"/>
     <row r="437" spans="1:2" s="7" customFormat="1">
       <c r="A437" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="438" spans="1:2" s="5" customFormat="1"/>
@@ -5857,108 +5867,108 @@
     <row r="440" spans="1:2" s="5" customFormat="1"/>
     <row r="441" spans="1:2" s="7" customFormat="1">
       <c r="A441" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="442" spans="1:2" s="6" customFormat="1">
       <c r="A442" s="6" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="3" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="3" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5966,34 +5976,34 @@
         <v>15</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="456" spans="1:2" s="5" customFormat="1"/>
     <row r="457" spans="1:2" s="6" customFormat="1">
       <c r="A457" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>9</v>
@@ -6001,7 +6011,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>13</v>
@@ -6018,55 +6028,55 @@
     <row r="463" spans="1:2" s="5" customFormat="1"/>
     <row r="464" spans="1:2" s="6" customFormat="1">
       <c r="A464" s="6" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="4" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="4" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="4" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6098,52 +6108,52 @@
     <row r="476" spans="1:2" s="5" customFormat="1"/>
     <row r="477" spans="1:2" s="7" customFormat="1">
       <c r="A477" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="478" spans="1:2" s="6" customFormat="1">
       <c r="A478" s="6" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="3" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6175,129 +6185,129 @@
     <row r="489" spans="1:2" s="5" customFormat="1"/>
     <row r="490" spans="1:2" s="7" customFormat="1">
       <c r="A490" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="491" spans="1:2" s="6" customFormat="1">
       <c r="A491" s="6" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="3" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="3" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="3" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="3" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="3" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="3" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="3" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>5</v>
@@ -6305,109 +6315,109 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="3" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512" spans="1:2" s="5" customFormat="1"/>
     <row r="513" spans="1:2" s="6" customFormat="1">
       <c r="A513" s="6" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="3" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>17</v>
@@ -6416,52 +6426,52 @@
     <row r="522" spans="1:2" s="5" customFormat="1"/>
     <row r="523" spans="1:2" s="6" customFormat="1">
       <c r="A523" s="6" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="3" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="3" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="3" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>9</v>
@@ -6469,15 +6479,15 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>17</v>
@@ -6486,84 +6496,84 @@
     <row r="532" spans="1:2" s="5" customFormat="1"/>
     <row r="533" spans="1:2" s="6" customFormat="1">
       <c r="A533" s="6" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="3" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>9</v>
@@ -6571,109 +6581,109 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="546" spans="1:4" s="5" customFormat="1"/>
     <row r="547" spans="1:4" s="6" customFormat="1">
       <c r="A547" s="6" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="4" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="4" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="550" spans="1:4" s="5" customFormat="1"/>
     <row r="551" spans="1:4" s="6" customFormat="1">
       <c r="A551" s="6" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="4" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="4" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="554" spans="1:4" s="5" customFormat="1"/>
     <row r="555" spans="1:4" s="6" customFormat="1">
       <c r="A555" s="6" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="4" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="4" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D557" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="558" spans="1:4" s="5" customFormat="1"/>
     <row r="559" spans="1:4" s="6" customFormat="1">
       <c r="A559" s="6" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="4" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="4" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="562" spans="1:2" s="5" customFormat="1"/>
@@ -6681,89 +6691,89 @@
     <row r="564" spans="1:2" s="5" customFormat="1"/>
     <row r="565" spans="1:2" s="7" customFormat="1">
       <c r="A565" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="566" spans="1:2" s="6" customFormat="1">
       <c r="A566" s="6" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="3" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="3" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="3" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="3" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>9</v>
@@ -6771,96 +6781,96 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="579" spans="1:2" s="5" customFormat="1"/>
     <row r="580" spans="1:2" s="6" customFormat="1">
       <c r="A580" s="6" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="4" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="3" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="3" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -6881,16 +6891,16 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="593" spans="1:2" s="5" customFormat="1"/>
     <row r="594" spans="1:2" s="6" customFormat="1">
       <c r="A594" s="6" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -6898,7 +6908,7 @@
         <v>48</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -6906,49 +6916,98 @@
         <v>60</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="A522:XFD522"/>
-    <mergeCell ref="A523:XFD523"/>
-    <mergeCell ref="A532:XFD532"/>
-    <mergeCell ref="A562:XFD562"/>
-    <mergeCell ref="A564:XFD564"/>
-    <mergeCell ref="A565:XFD565"/>
-    <mergeCell ref="A566:XFD566"/>
-    <mergeCell ref="A533:XFD533"/>
-    <mergeCell ref="A546:XFD546"/>
-    <mergeCell ref="A547:XFD547"/>
-    <mergeCell ref="A550:XFD550"/>
-    <mergeCell ref="A551:XFD551"/>
-    <mergeCell ref="A554:XFD554"/>
-    <mergeCell ref="A555:XFD555"/>
-    <mergeCell ref="A558:XFD558"/>
-    <mergeCell ref="A559:XFD559"/>
-    <mergeCell ref="A416:XFD416"/>
-    <mergeCell ref="A426:XFD426"/>
-    <mergeCell ref="A430:XFD430"/>
-    <mergeCell ref="A487:XFD487"/>
-    <mergeCell ref="A489:XFD489"/>
-    <mergeCell ref="A490:XFD490"/>
-    <mergeCell ref="A491:XFD491"/>
-    <mergeCell ref="A512:XFD512"/>
-    <mergeCell ref="A513:XFD513"/>
-    <mergeCell ref="A474:XFD474"/>
-    <mergeCell ref="A441:XFD441"/>
-    <mergeCell ref="A442:XFD442"/>
-    <mergeCell ref="A456:XFD456"/>
-    <mergeCell ref="A457:XFD457"/>
-    <mergeCell ref="A463:XFD463"/>
-    <mergeCell ref="A464:XFD464"/>
-    <mergeCell ref="A433:XFD433"/>
-    <mergeCell ref="A434:XFD434"/>
-    <mergeCell ref="A436:XFD436"/>
-    <mergeCell ref="A437:XFD437"/>
-    <mergeCell ref="A438:XFD438"/>
-    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A579:XFD579"/>
+    <mergeCell ref="A580:XFD580"/>
+    <mergeCell ref="A593:XFD593"/>
+    <mergeCell ref="A594:XFD594"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A476:XFD476"/>
+    <mergeCell ref="A477:XFD477"/>
+    <mergeCell ref="A478:XFD478"/>
+    <mergeCell ref="A432:XFD432"/>
+    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A331:XFD331"/>
+    <mergeCell ref="A332:XFD332"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
     <mergeCell ref="A415:XFD415"/>
     <mergeCell ref="A288:XFD288"/>
     <mergeCell ref="A279:XFD279"/>
@@ -6973,93 +7032,44 @@
     <mergeCell ref="A401:XFD401"/>
     <mergeCell ref="A402:XFD402"/>
     <mergeCell ref="A412:XFD412"/>
-    <mergeCell ref="A331:XFD331"/>
-    <mergeCell ref="A332:XFD332"/>
-    <mergeCell ref="A327:XFD327"/>
-    <mergeCell ref="A328:XFD328"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A579:XFD579"/>
-    <mergeCell ref="A580:XFD580"/>
-    <mergeCell ref="A593:XFD593"/>
-    <mergeCell ref="A594:XFD594"/>
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A390:XFD390"/>
-    <mergeCell ref="A384:XFD384"/>
-    <mergeCell ref="A385:XFD385"/>
-    <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A388:XFD388"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:XFD376"/>
-    <mergeCell ref="A476:XFD476"/>
-    <mergeCell ref="A477:XFD477"/>
-    <mergeCell ref="A478:XFD478"/>
-    <mergeCell ref="A432:XFD432"/>
-    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A487:XFD487"/>
+    <mergeCell ref="A489:XFD489"/>
+    <mergeCell ref="A490:XFD490"/>
+    <mergeCell ref="A491:XFD491"/>
+    <mergeCell ref="A512:XFD512"/>
+    <mergeCell ref="A513:XFD513"/>
+    <mergeCell ref="A474:XFD474"/>
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A522:XFD522"/>
+    <mergeCell ref="A523:XFD523"/>
+    <mergeCell ref="A532:XFD532"/>
+    <mergeCell ref="A562:XFD562"/>
+    <mergeCell ref="A564:XFD564"/>
+    <mergeCell ref="A565:XFD565"/>
+    <mergeCell ref="A566:XFD566"/>
+    <mergeCell ref="A533:XFD533"/>
+    <mergeCell ref="A546:XFD546"/>
+    <mergeCell ref="A547:XFD547"/>
+    <mergeCell ref="A550:XFD550"/>
+    <mergeCell ref="A551:XFD551"/>
+    <mergeCell ref="A554:XFD554"/>
+    <mergeCell ref="A555:XFD555"/>
+    <mergeCell ref="A558:XFD558"/>
+    <mergeCell ref="A559:XFD559"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
@@ -1486,1147 +1486,1147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理问题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理意见备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结果备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrIdeaRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrResultRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.After_Sale_Record - 售后记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeBeginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条款编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的营业员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.After_Sale_Record_Status - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.After_Sale_Record_Type - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldAsrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">voucherCode  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsCategroyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商品品类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一、Goods - 商品模块（含品类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品品类 - Goods_Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcName</t>
+  </si>
+  <si>
+    <t>gcGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeGcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPrice</t>
+  </si>
+  <si>
+    <t>2.商品 - Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类名称</t>
+  </si>
+  <si>
+    <t>品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类所属级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品类别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标签价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二、Evaluate - 评价管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商户评价 - Merchant_Evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meSonItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该子评价项目占当前父评价项目的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meParentItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三、商户管理（并入招商模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四、日志管理（暂时不涉及）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五、品牌管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandCode</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>brandSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessLicense</t>
+  </si>
+  <si>
+    <t>registeredCapital</t>
+  </si>
+  <si>
+    <t>taxRegistrationNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalPersonNo</t>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌助记符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.品牌信息 - Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.品牌认证类型 - Brand_Cert_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.品牌认证 - Brand_Cert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照注册号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务登记证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证类型标识</t>
+  </si>
+  <si>
+    <t>认证类型名称</t>
+  </si>
+  <si>
+    <t>品牌认证标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六、合同模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板标识</t>
+  </si>
+  <si>
+    <t>合同模板编号</t>
+  </si>
+  <si>
+    <t>合同模板文本之存储路径</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctId</t>
+  </si>
+  <si>
+    <t>ctCode</t>
+  </si>
+  <si>
+    <t>ctName</t>
+  </si>
+  <si>
+    <t>storagePath</t>
+  </si>
+  <si>
+    <t>1.合同模板 - Contract_Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十七、合同管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型标识</t>
+  </si>
+  <si>
+    <t>项目标识</t>
+  </si>
+  <si>
+    <t>合同期限</t>
+  </si>
+  <si>
+    <t>合同签订日期</t>
+  </si>
+  <si>
+    <t>合同起始日期</t>
+  </si>
+  <si>
+    <t>合同截止日期</t>
+  </si>
+  <si>
+    <t>合同费用总计</t>
+  </si>
+  <si>
+    <t>优惠费用总计</t>
+  </si>
+  <si>
+    <t>实际费用总计</t>
+  </si>
+  <si>
+    <t>合同缴费周期方式类型标识</t>
+  </si>
+  <si>
+    <t>合同分期次数</t>
+  </si>
+  <si>
+    <t>登记合同的用户编号</t>
+  </si>
+  <si>
+    <t>登记时间</t>
+  </si>
+  <si>
+    <t>最近一次的用户编号</t>
+  </si>
+  <si>
+    <t>最近一次的编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态标识</t>
+  </si>
+  <si>
+    <t>1.合同基本信息 - Contract_Basic_Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signingDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discountAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.合同收费明细信息 - Contract_Charge_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务收费名目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收金额</t>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.合同缴费方式明细信息 - Contract_PayMode_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各分期序号</t>
+  </si>
+  <si>
+    <t>各分期的截止日期</t>
+  </si>
+  <si>
+    <t>各分期缴费金额</t>
+  </si>
+  <si>
+    <t>periodNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payModeTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请类型</t>
+  </si>
+  <si>
+    <t>提交申请日期</t>
+  </si>
+  <si>
+    <t>申请合同终止的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续的截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同终止、延续的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.合同延续、终止申请 - Contract_Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyFinishDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费方式标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.合同缴费方式 - PayMode_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.合同类型 - Contract_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.合同状态 - Contract_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费周期类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费周期类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八、财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费名目标识</t>
+  </si>
+  <si>
+    <t>收费名目编号</t>
+  </si>
+  <si>
+    <t>收费名目名称</t>
+  </si>
+  <si>
+    <t>是否合同收费名目</t>
+  </si>
+  <si>
+    <t>是否资源租赁收费名目</t>
+  </si>
+  <si>
+    <t>费用描述</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用周期性标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体缴费类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属资源标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isContractItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isResourceItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldVoucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费起始日期</t>
+  </si>
+  <si>
+    <t>缴费截止日期</t>
+  </si>
+  <si>
+    <t>tradeBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位标准费用款项标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位标准费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收费款项标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.Booth_Real_Fee - 摊位实际收费款项信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安保状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原售后记录标识（适用于投诉回访）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>售后记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理起始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理问题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理意见备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结果备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrIdeaRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrResultRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.After_Sale_Record - 售后记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeBeginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeEndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反条款编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的营业员名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.After_Sale_Record_Status - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.After_Sale_Record_Type - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldAsrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">voucherCode  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsCategroyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商品品类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一、Goods - 商品模块（含品类）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.商品品类 - Goods_Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcName</t>
-  </si>
-  <si>
-    <t>gcGradeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upGradeGcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsPrice</t>
-  </si>
-  <si>
-    <t>2.商品 - Goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类名称</t>
-  </si>
-  <si>
-    <t>品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类所属级别序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品类别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标签价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二、Evaluate - 评价管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.商户评价 - Merchant_Evaluate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meSonItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该子评价项目占当前父评价项目的权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父评价项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子评价项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meParentItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三、商户管理（并入招商模块）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十四、日志管理（暂时不涉及）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十五、品牌管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandCode</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>brandSymbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessLicense</t>
-  </si>
-  <si>
-    <t>registeredCapital</t>
-  </si>
-  <si>
-    <t>taxRegistrationNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalPersonNo</t>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌助记符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.品牌信息 - Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.品牌认证类型 - Brand_Cert_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.品牌认证 - Brand_Cert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照注册号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务登记证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证类型标识</t>
-  </si>
-  <si>
-    <t>认证类型名称</t>
-  </si>
-  <si>
-    <t>品牌认证标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十六、合同模板管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板标识</t>
-  </si>
-  <si>
-    <t>合同模板编号</t>
-  </si>
-  <si>
-    <t>合同模板文本之存储路径</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctId</t>
-  </si>
-  <si>
-    <t>ctCode</t>
-  </si>
-  <si>
-    <t>ctName</t>
-  </si>
-  <si>
-    <t>storagePath</t>
-  </si>
-  <si>
-    <t>1.合同模板 - Contract_Template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十七、合同管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型标识</t>
-  </si>
-  <si>
-    <t>项目标识</t>
-  </si>
-  <si>
-    <t>合同期限</t>
-  </si>
-  <si>
-    <t>合同签订日期</t>
-  </si>
-  <si>
-    <t>合同起始日期</t>
-  </si>
-  <si>
-    <t>合同截止日期</t>
-  </si>
-  <si>
-    <t>合同费用总计</t>
-  </si>
-  <si>
-    <t>优惠费用总计</t>
-  </si>
-  <si>
-    <t>实际费用总计</t>
-  </si>
-  <si>
-    <t>合同缴费周期方式类型标识</t>
-  </si>
-  <si>
-    <t>合同分期次数</t>
-  </si>
-  <si>
-    <t>登记合同的用户编号</t>
-  </si>
-  <si>
-    <t>登记时间</t>
-  </si>
-  <si>
-    <t>最近一次的用户编号</t>
-  </si>
-  <si>
-    <t>最近一次的编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态标识</t>
-  </si>
-  <si>
-    <t>1.合同基本信息 - Contract_Basic_Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signingDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCapital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discountAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPeriodTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.合同收费明细信息 - Contract_Charge_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务收费名目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收金额</t>
-  </si>
-  <si>
-    <t>最后一次编辑用户编号</t>
-  </si>
-  <si>
-    <t>最后一次编辑时间</t>
-  </si>
-  <si>
-    <t>chargeItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.合同缴费方式明细信息 - Contract_PayMode_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各分期序号</t>
-  </si>
-  <si>
-    <t>各分期的截止日期</t>
-  </si>
-  <si>
-    <t>各分期缴费金额</t>
-  </si>
-  <si>
-    <t>periodNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payModeTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请类型</t>
-  </si>
-  <si>
-    <t>提交申请日期</t>
-  </si>
-  <si>
-    <t>申请合同终止的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续的截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同终止、延续的原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.合同延续、终止申请 - Contract_Apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyFinishDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费方式标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费方式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.合同缴费方式 - PayMode_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.合同类型 - Contract_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.合同状态 - Contract_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费周期类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费周期类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八、财务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费名目标识</t>
-  </si>
-  <si>
-    <t>收费名目编号</t>
-  </si>
-  <si>
-    <t>收费名目名称</t>
-  </si>
-  <si>
-    <t>是否合同收费名目</t>
-  </si>
-  <si>
-    <t>是否资源租赁收费名目</t>
-  </si>
-  <si>
-    <t>费用描述</t>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用周期性标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体缴费类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属资源标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContractItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isResourceItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPeriodTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldVoucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费起始日期</t>
-  </si>
-  <si>
-    <t>缴费截止日期</t>
-  </si>
-  <si>
-    <t>tradeBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摊位标准费用款项标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摊位标准费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际收费款项标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.Booth_Real_Fee - 摊位实际收费款项信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业状态（属于摊位状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安保状态（属于摊位状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修状态（属于摊位状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原售后记录标识（适用于投诉回访）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3045,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="B353" sqref="B353"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3368,7 +3368,7 @@
     <row r="43" spans="1:2" s="5" customFormat="1"/>
     <row r="44" spans="1:2" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3438,7 +3438,7 @@
     <row r="53" spans="1:2" s="5" customFormat="1"/>
     <row r="54" spans="1:2" s="6" customFormat="1">
       <c r="A54" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3499,7 +3499,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>17</v>
@@ -3664,7 +3664,7 @@
     <row r="86" spans="1:2" s="2" customFormat="1"/>
     <row r="88" spans="1:2" s="7" customFormat="1">
       <c r="A88" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1">
@@ -3909,7 +3909,7 @@
         <v>127</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>128</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>129</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4855,7 +4855,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>306</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>307</v>
@@ -5330,69 +5330,69 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B351" s="6"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>392</v>
@@ -5400,74 +5400,74 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5475,7 +5475,7 @@
         <v>132</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5483,12 +5483,12 @@
         <v>12</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>395</v>
@@ -5497,30 +5497,30 @@
     <row r="372" spans="1:2" s="5" customFormat="1"/>
     <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B373" s="6"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="5" customFormat="1"/>
     <row r="377" spans="1:2">
       <c r="A377" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B377" s="6"/>
     </row>
@@ -5537,52 +5537,52 @@
         <v>396</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>397</v>
+        <v>695</v>
       </c>
     </row>
     <row r="380" spans="1:2" s="5" customFormat="1"/>
     <row r="381" spans="1:2">
       <c r="A381" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B381" s="6"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="384" spans="1:2" s="5" customFormat="1"/>
     <row r="385" spans="1:2" s="6" customFormat="1">
       <c r="A385" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="388" spans="1:2" s="5" customFormat="1"/>
@@ -5590,60 +5590,60 @@
     <row r="390" spans="1:2" s="5" customFormat="1"/>
     <row r="391" spans="1:2" s="7" customFormat="1">
       <c r="A391" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="6" customFormat="1">
       <c r="A392" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5651,7 +5651,7 @@
         <v>11</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5659,37 +5659,37 @@
         <v>15</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="5" customFormat="1"/>
     <row r="402" spans="1:2" s="6" customFormat="1">
       <c r="A402" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5697,15 +5697,15 @@
         <v>166</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5713,7 +5713,7 @@
         <v>130</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5721,7 +5721,7 @@
         <v>7</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5729,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5737,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="412" spans="1:2" s="5" customFormat="1"/>
@@ -5745,105 +5745,105 @@
     <row r="414" spans="1:2" s="5" customFormat="1"/>
     <row r="415" spans="1:2" s="7" customFormat="1">
       <c r="A415" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="6" customFormat="1">
       <c r="A416" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="426" spans="1:2" s="6" customFormat="1">
       <c r="A426" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="430" spans="1:2" s="5" customFormat="1"/>
@@ -5851,7 +5851,7 @@
     <row r="432" spans="1:2" s="5" customFormat="1"/>
     <row r="433" spans="1:2" s="7" customFormat="1">
       <c r="A433" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="434" spans="1:2" s="5" customFormat="1"/>
@@ -5859,7 +5859,7 @@
     <row r="436" spans="1:2" s="5" customFormat="1"/>
     <row r="437" spans="1:2" s="7" customFormat="1">
       <c r="A437" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="438" spans="1:2" s="5" customFormat="1"/>
@@ -5867,108 +5867,108 @@
     <row r="440" spans="1:2" s="5" customFormat="1"/>
     <row r="441" spans="1:2" s="7" customFormat="1">
       <c r="A441" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="442" spans="1:2" s="6" customFormat="1">
       <c r="A442" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5976,34 +5976,34 @@
         <v>15</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="456" spans="1:2" s="5" customFormat="1"/>
     <row r="457" spans="1:2" s="6" customFormat="1">
       <c r="A457" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>9</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>13</v>
@@ -6028,55 +6028,55 @@
     <row r="463" spans="1:2" s="5" customFormat="1"/>
     <row r="464" spans="1:2" s="6" customFormat="1">
       <c r="A464" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B466" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6108,44 +6108,44 @@
     <row r="476" spans="1:2" s="5" customFormat="1"/>
     <row r="477" spans="1:2" s="7" customFormat="1">
       <c r="A477" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="478" spans="1:2" s="6" customFormat="1">
       <c r="A478" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -6153,7 +6153,7 @@
         <v>130</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6185,41 +6185,41 @@
     <row r="489" spans="1:2" s="5" customFormat="1"/>
     <row r="490" spans="1:2" s="7" customFormat="1">
       <c r="A490" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="491" spans="1:2" s="6" customFormat="1">
       <c r="A491" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>85</v>
@@ -6227,87 +6227,87 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>5</v>
@@ -6315,77 +6315,77 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="512" spans="1:2" s="5" customFormat="1"/>
     <row r="513" spans="1:2" s="6" customFormat="1">
       <c r="A513" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>307</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>308</v>
@@ -6401,23 +6401,23 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>17</v>
@@ -6426,52 +6426,52 @@
     <row r="522" spans="1:2" s="5" customFormat="1"/>
     <row r="523" spans="1:2" s="6" customFormat="1">
       <c r="A523" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>9</v>
@@ -6479,15 +6479,15 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>17</v>
@@ -6496,28 +6496,28 @@
     <row r="532" spans="1:2" s="5" customFormat="1"/>
     <row r="533" spans="1:2" s="6" customFormat="1">
       <c r="A533" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>134</v>
@@ -6525,55 +6525,55 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>9</v>
@@ -6581,109 +6581,109 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="546" spans="1:4" s="5" customFormat="1"/>
     <row r="547" spans="1:4" s="6" customFormat="1">
       <c r="A547" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="550" spans="1:4" s="5" customFormat="1"/>
     <row r="551" spans="1:4" s="6" customFormat="1">
       <c r="A551" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="554" spans="1:4" s="5" customFormat="1"/>
     <row r="555" spans="1:4" s="6" customFormat="1">
       <c r="A555" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D557" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="558" spans="1:4" s="5" customFormat="1"/>
     <row r="559" spans="1:4" s="6" customFormat="1">
       <c r="A559" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="562" spans="1:2" s="5" customFormat="1"/>
@@ -6691,89 +6691,89 @@
     <row r="564" spans="1:2" s="5" customFormat="1"/>
     <row r="565" spans="1:2" s="7" customFormat="1">
       <c r="A565" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="566" spans="1:2" s="6" customFormat="1">
       <c r="A566" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>9</v>
@@ -6781,96 +6781,96 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="579" spans="1:2" s="5" customFormat="1"/>
     <row r="580" spans="1:2" s="6" customFormat="1">
       <c r="A580" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -6891,16 +6891,16 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="593" spans="1:2" s="5" customFormat="1"/>
     <row r="594" spans="1:2" s="6" customFormat="1">
       <c r="A594" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -6908,7 +6908,7 @@
         <v>48</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -6916,11 +6916,136 @@
         <v>60</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="149">
+    <mergeCell ref="A522:XFD522"/>
+    <mergeCell ref="A523:XFD523"/>
+    <mergeCell ref="A532:XFD532"/>
+    <mergeCell ref="A562:XFD562"/>
+    <mergeCell ref="A564:XFD564"/>
+    <mergeCell ref="A565:XFD565"/>
+    <mergeCell ref="A566:XFD566"/>
+    <mergeCell ref="A533:XFD533"/>
+    <mergeCell ref="A546:XFD546"/>
+    <mergeCell ref="A547:XFD547"/>
+    <mergeCell ref="A550:XFD550"/>
+    <mergeCell ref="A551:XFD551"/>
+    <mergeCell ref="A554:XFD554"/>
+    <mergeCell ref="A555:XFD555"/>
+    <mergeCell ref="A558:XFD558"/>
+    <mergeCell ref="A559:XFD559"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A487:XFD487"/>
+    <mergeCell ref="A489:XFD489"/>
+    <mergeCell ref="A490:XFD490"/>
+    <mergeCell ref="A491:XFD491"/>
+    <mergeCell ref="A512:XFD512"/>
+    <mergeCell ref="A513:XFD513"/>
+    <mergeCell ref="A474:XFD474"/>
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A415:XFD415"/>
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A287:XFD287"/>
+    <mergeCell ref="A339:XFD339"/>
+    <mergeCell ref="A345:XFD345"/>
+    <mergeCell ref="A315:XFD315"/>
+    <mergeCell ref="A316:XFD316"/>
+    <mergeCell ref="A299:XFD299"/>
+    <mergeCell ref="A300:XFD300"/>
+    <mergeCell ref="A301:XFD301"/>
+    <mergeCell ref="A308:XFD308"/>
+    <mergeCell ref="A309:XFD309"/>
+    <mergeCell ref="A314:XFD314"/>
+    <mergeCell ref="A337:XFD337"/>
+    <mergeCell ref="A338:XFD338"/>
+    <mergeCell ref="A391:XFD391"/>
+    <mergeCell ref="A392:XFD392"/>
+    <mergeCell ref="A401:XFD401"/>
+    <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A412:XFD412"/>
+    <mergeCell ref="A331:XFD331"/>
+    <mergeCell ref="A332:XFD332"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
     <mergeCell ref="A579:XFD579"/>
     <mergeCell ref="A580:XFD580"/>
     <mergeCell ref="A593:XFD593"/>
@@ -6945,131 +7070,6 @@
     <mergeCell ref="A478:XFD478"/>
     <mergeCell ref="A432:XFD432"/>
     <mergeCell ref="A414:XFD414"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A331:XFD331"/>
-    <mergeCell ref="A332:XFD332"/>
-    <mergeCell ref="A327:XFD327"/>
-    <mergeCell ref="A328:XFD328"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A415:XFD415"/>
-    <mergeCell ref="A288:XFD288"/>
-    <mergeCell ref="A279:XFD279"/>
-    <mergeCell ref="A280:XFD280"/>
-    <mergeCell ref="A283:XFD283"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="A287:XFD287"/>
-    <mergeCell ref="A339:XFD339"/>
-    <mergeCell ref="A345:XFD345"/>
-    <mergeCell ref="A315:XFD315"/>
-    <mergeCell ref="A316:XFD316"/>
-    <mergeCell ref="A299:XFD299"/>
-    <mergeCell ref="A300:XFD300"/>
-    <mergeCell ref="A301:XFD301"/>
-    <mergeCell ref="A308:XFD308"/>
-    <mergeCell ref="A309:XFD309"/>
-    <mergeCell ref="A314:XFD314"/>
-    <mergeCell ref="A337:XFD337"/>
-    <mergeCell ref="A338:XFD338"/>
-    <mergeCell ref="A391:XFD391"/>
-    <mergeCell ref="A392:XFD392"/>
-    <mergeCell ref="A401:XFD401"/>
-    <mergeCell ref="A402:XFD402"/>
-    <mergeCell ref="A412:XFD412"/>
-    <mergeCell ref="A416:XFD416"/>
-    <mergeCell ref="A426:XFD426"/>
-    <mergeCell ref="A430:XFD430"/>
-    <mergeCell ref="A487:XFD487"/>
-    <mergeCell ref="A489:XFD489"/>
-    <mergeCell ref="A490:XFD490"/>
-    <mergeCell ref="A491:XFD491"/>
-    <mergeCell ref="A512:XFD512"/>
-    <mergeCell ref="A513:XFD513"/>
-    <mergeCell ref="A474:XFD474"/>
-    <mergeCell ref="A441:XFD441"/>
-    <mergeCell ref="A442:XFD442"/>
-    <mergeCell ref="A456:XFD456"/>
-    <mergeCell ref="A457:XFD457"/>
-    <mergeCell ref="A463:XFD463"/>
-    <mergeCell ref="A464:XFD464"/>
-    <mergeCell ref="A433:XFD433"/>
-    <mergeCell ref="A434:XFD434"/>
-    <mergeCell ref="A436:XFD436"/>
-    <mergeCell ref="A437:XFD437"/>
-    <mergeCell ref="A438:XFD438"/>
-    <mergeCell ref="A440:XFD440"/>
-    <mergeCell ref="A522:XFD522"/>
-    <mergeCell ref="A523:XFD523"/>
-    <mergeCell ref="A532:XFD532"/>
-    <mergeCell ref="A562:XFD562"/>
-    <mergeCell ref="A564:XFD564"/>
-    <mergeCell ref="A565:XFD565"/>
-    <mergeCell ref="A566:XFD566"/>
-    <mergeCell ref="A533:XFD533"/>
-    <mergeCell ref="A546:XFD546"/>
-    <mergeCell ref="A547:XFD547"/>
-    <mergeCell ref="A550:XFD550"/>
-    <mergeCell ref="A551:XFD551"/>
-    <mergeCell ref="A554:XFD554"/>
-    <mergeCell ref="A555:XFD555"/>
-    <mergeCell ref="A558:XFD558"/>
-    <mergeCell ref="A559:XFD559"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库完整中英文对照表.xlsx
@@ -481,2152 +481,2153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户标识</t>
+  </si>
+  <si>
+    <t>商户编号</t>
+  </si>
+  <si>
+    <t>商户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户助记符</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系移动电话</t>
+  </si>
+  <si>
+    <t>联系固定电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户网址</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商信息的来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业性质编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销级别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司员工规模编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否具备网商能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴纳的保证金金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴纳的诚意金金额</t>
+  </si>
+  <si>
+    <t>营业执照编号</t>
+  </si>
+  <si>
+    <t>国税登记号</t>
+  </si>
+  <si>
+    <t>地税登记号</t>
+  </si>
+  <si>
+    <t>开户银行</t>
+  </si>
+  <si>
+    <t>银行账户</t>
+  </si>
+  <si>
+    <t>法人代表姓名</t>
+  </si>
+  <si>
+    <t>法人代表电话</t>
+  </si>
+  <si>
+    <t>法人代表证编号</t>
+  </si>
+  <si>
+    <t>商户状态</t>
+  </si>
+  <si>
+    <t>最后一次修改用户编号</t>
+  </si>
+  <si>
+    <t>最后一次修改时间</t>
+  </si>
+  <si>
+    <t>2.Rl_Merchant_Brand - 商户品牌关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Merchant_Cert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcId</t>
+  </si>
+  <si>
+    <t>mcTypeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcEndDate</t>
+  </si>
+  <si>
+    <t>mcAwardUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户证照标识</t>
+  </si>
+  <si>
+    <t>商户证照类型编号</t>
+  </si>
+  <si>
+    <t>商户证照编号</t>
+  </si>
+  <si>
+    <t>证照生效起始日期</t>
+  </si>
+  <si>
+    <t>证照生效截止日期</t>
+  </si>
+  <si>
+    <t>证照颁发单位</t>
+  </si>
+  <si>
+    <t>4.Merchant_Cert_Type - 商户证照类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证照类型编号</t>
+  </si>
+  <si>
+    <t>证照类型名称</t>
+  </si>
+  <si>
+    <t>natureCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natureName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业性质名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Merchant_Status - 商户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.Business_Nature - 企业性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.Employee_Size_Type - 公司员工规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工规模编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工规模名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.Agent_Level_Code - 商户代理级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理级别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理级别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.Merchant_Daily_Patrol_Record - 商户日常巡查记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adprId</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡查记录标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、Merchant - 用户模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Department - 部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeDeptId</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.User - 用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Role - 角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色标识</t>
+  </si>
+  <si>
+    <t>角色标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Authority - 权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorityCode</t>
+  </si>
+  <si>
+    <t>authorityName</t>
+  </si>
+  <si>
+    <t>authorityModuleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Authority_Module - 权限模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.User_Status - 用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.Rl_User_Role - 用户、角色映射关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.Rl_Role_Authority - 角色、权限映射关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Assistant - 营业员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantCertCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员证件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Assistant_Daily_Patrol_Record - 针对营业员的日常巡查记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、Assistant - 营业员模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、Sale - 销售模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+  </si>
+  <si>
+    <t>voucherTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>customerTel</t>
+  </si>
+  <si>
+    <t>customerAddress</t>
+  </si>
+  <si>
+    <t>realCapital</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>payStatusOfDeposit</t>
+  </si>
+  <si>
+    <t>payStatusOfTotalCapital</t>
+  </si>
+  <si>
+    <t>saleTime</t>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boothId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者电话</t>
+  </si>
+  <si>
+    <t>消费者地址</t>
+  </si>
+  <si>
+    <t>商品金额总计</t>
+  </si>
+  <si>
+    <t>优惠金额</t>
+  </si>
+  <si>
+    <t>实际金额</t>
+  </si>
+  <si>
+    <t>定金金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金缴纳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全款缴纳状态</t>
+  </si>
+  <si>
+    <t>销售记录发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Sale_Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+  </si>
+  <si>
+    <t>2.Pay_Status - 缴纳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型名称</t>
+  </si>
+  <si>
+    <t>typeId</t>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Voucher_Type - 单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Sale_Record_Detail - 销售记录详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录标识</t>
+  </si>
+  <si>
+    <t>所属单据号</t>
+  </si>
+  <si>
+    <t>能定位到某商品的编号</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+  </si>
+  <si>
+    <t>recordId</t>
+  </si>
+  <si>
+    <t>goodsCode</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>六、Message - 消息模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendUserCode</t>
+  </si>
+  <si>
+    <t>messageText</t>
+  </si>
+  <si>
+    <t>messageStatusId</t>
+  </si>
+  <si>
+    <t>消息标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Message_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectBaseFee</t>
+  </si>
+  <si>
+    <t>projectBeginDate</t>
+  </si>
+  <si>
+    <t>projectEndDate</t>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectStatusId</t>
+  </si>
+  <si>
+    <t>项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发起方或组织方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目门槛费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次编辑用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Project - 项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Rl_Project_Merchant - 项目商户关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Project_Status - 项目状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七、Project - 项目模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八、System - 系统模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.System_Parameter - 系统参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九、Query - 统计查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十、AfterSale - 售后模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的销售单据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理问题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理意见备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结果备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrIdeaRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrResultRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.After_Sale_Record - 售后记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeBeginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条款编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的营业员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.After_Sale_Record_Status - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.After_Sale_Record_Type - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldAsrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">voucherCode  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsCategroyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商品品类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一、Goods - 商品模块（含品类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品品类 - Goods_Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcName</t>
+  </si>
+  <si>
+    <t>gcGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeGcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPrice</t>
+  </si>
+  <si>
+    <t>2.商品 - Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类名称</t>
+  </si>
+  <si>
+    <t>品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类所属级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品类别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标签价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二、Evaluate - 评价管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商户评价 - Merchant_Evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meSonItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该子评价项目占当前父评价项目的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meParentItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三、商户管理（并入招商模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四、日志管理（暂时不涉及）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五、品牌管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandCode</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>brandSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessLicense</t>
+  </si>
+  <si>
+    <t>registeredCapital</t>
+  </si>
+  <si>
+    <t>taxRegistrationNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalPersonNo</t>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌助记符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.品牌信息 - Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.品牌认证类型 - Brand_Cert_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.品牌认证 - Brand_Cert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照注册号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务登记证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证类型标识</t>
+  </si>
+  <si>
+    <t>认证类型名称</t>
+  </si>
+  <si>
+    <t>品牌认证标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六、合同模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板标识</t>
+  </si>
+  <si>
+    <t>合同模板编号</t>
+  </si>
+  <si>
+    <t>合同模板文本之存储路径</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctId</t>
+  </si>
+  <si>
+    <t>ctCode</t>
+  </si>
+  <si>
+    <t>ctName</t>
+  </si>
+  <si>
+    <t>storagePath</t>
+  </si>
+  <si>
+    <t>1.合同模板 - Contract_Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十七、合同管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型标识</t>
+  </si>
+  <si>
+    <t>项目标识</t>
+  </si>
+  <si>
+    <t>合同期限</t>
+  </si>
+  <si>
+    <t>合同签订日期</t>
+  </si>
+  <si>
+    <t>合同起始日期</t>
+  </si>
+  <si>
+    <t>合同截止日期</t>
+  </si>
+  <si>
+    <t>合同费用总计</t>
+  </si>
+  <si>
+    <t>优惠费用总计</t>
+  </si>
+  <si>
+    <t>实际费用总计</t>
+  </si>
+  <si>
+    <t>合同缴费周期方式类型标识</t>
+  </si>
+  <si>
+    <t>合同分期次数</t>
+  </si>
+  <si>
+    <t>登记合同的用户编号</t>
+  </si>
+  <si>
+    <t>登记时间</t>
+  </si>
+  <si>
+    <t>最近一次的用户编号</t>
+  </si>
+  <si>
+    <t>最近一次的编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态标识</t>
+  </si>
+  <si>
+    <t>1.合同基本信息 - Contract_Basic_Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signingDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discountAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.合同收费明细信息 - Contract_Charge_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务收费名目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收金额</t>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.合同缴费方式明细信息 - Contract_PayMode_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各分期序号</t>
+  </si>
+  <si>
+    <t>各分期的截止日期</t>
+  </si>
+  <si>
+    <t>各分期缴费金额</t>
+  </si>
+  <si>
+    <t>periodNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payModeTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请类型</t>
+  </si>
+  <si>
+    <t>提交申请日期</t>
+  </si>
+  <si>
+    <t>申请合同终止的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同延续的截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请合同终止、延续的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.合同延续、终止申请 - Contract_Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyFinishDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyExtendEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费方式标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.合同缴费方式 - PayMode_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.合同类型 - Contract_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.合同状态 - Contract_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费周期类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同缴费周期类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八、财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费名目标识</t>
+  </si>
+  <si>
+    <t>收费名目编号</t>
+  </si>
+  <si>
+    <t>收费名目名称</t>
+  </si>
+  <si>
+    <t>是否合同收费名目</t>
+  </si>
+  <si>
+    <t>是否资源租赁收费名目</t>
+  </si>
+  <si>
+    <t>费用描述</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用周期性标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体缴费类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属资源标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交易记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isContractItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isResourceItemFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPeriodTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldVoucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费起始日期</t>
+  </si>
+  <si>
+    <t>缴费截止日期</t>
+  </si>
+  <si>
+    <t>tradeBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位标准费用款项标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位标准费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收费款项标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.Booth_Real_Fee - 摊位实际收费款项信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安保状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修状态（属于摊位状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原售后记录标识（适用于投诉回访）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>securityApproveStatusId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>propertyApproveStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>decorationApproveStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户标识</t>
-  </si>
-  <si>
-    <t>商户编号</t>
-  </si>
-  <si>
-    <t>商户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户助记符</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系移动电话</t>
-  </si>
-  <si>
-    <t>联系固定电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户网址</t>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主营品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主营品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商信息的来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业性质编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销级别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司员工规模编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否具备网商能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴纳的保证金金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴纳的诚意金金额</t>
-  </si>
-  <si>
-    <t>营业执照编号</t>
-  </si>
-  <si>
-    <t>国税登记号</t>
-  </si>
-  <si>
-    <t>地税登记号</t>
-  </si>
-  <si>
-    <t>开户银行</t>
-  </si>
-  <si>
-    <t>银行账户</t>
-  </si>
-  <si>
-    <t>法人代表姓名</t>
-  </si>
-  <si>
-    <t>法人代表电话</t>
-  </si>
-  <si>
-    <t>法人代表证编号</t>
-  </si>
-  <si>
-    <t>商户状态</t>
-  </si>
-  <si>
-    <t>最后一次修改用户编号</t>
-  </si>
-  <si>
-    <t>最后一次修改时间</t>
-  </si>
-  <si>
-    <t>2.Rl_Merchant_Brand - 商户品牌关联信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Merchant_Cert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcId</t>
-  </si>
-  <si>
-    <t>mcTypeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcEndDate</t>
-  </si>
-  <si>
-    <t>mcAwardUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户证照标识</t>
-  </si>
-  <si>
-    <t>商户证照类型编号</t>
-  </si>
-  <si>
-    <t>商户证照编号</t>
-  </si>
-  <si>
-    <t>证照生效起始日期</t>
-  </si>
-  <si>
-    <t>证照生效截止日期</t>
-  </si>
-  <si>
-    <t>证照颁发单位</t>
-  </si>
-  <si>
-    <t>4.Merchant_Cert_Type - 商户证照类型信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证照类型编号</t>
-  </si>
-  <si>
-    <t>证照类型名称</t>
-  </si>
-  <si>
-    <t>natureCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>natureName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业性质名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Merchant_Status - 商户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.Business_Nature - 企业性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.Employee_Size_Type - 公司员工规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工规模编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工规模名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.Agent_Level_Code - 商户代理级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理级别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理级别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.Merchant_Daily_Patrol_Record - 商户日常巡查记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adprId</t>
-  </si>
-  <si>
-    <t>ruleCode</t>
-  </si>
-  <si>
-    <t>ruleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡查记录标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反条例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三、Merchant - 用户模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Department - 部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptGradeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upGradeDeptId</t>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门级别序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级部门标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.User - 用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userCode</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastLoginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次登录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Role - 角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleName</t>
-  </si>
-  <si>
-    <t>角色标识</t>
-  </si>
-  <si>
-    <t>角色标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.Authority - 权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorityCode</t>
-  </si>
-  <si>
-    <t>authorityName</t>
-  </si>
-  <si>
-    <t>authorityModuleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限模块编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Authority_Module - 权限模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.User_Status - 用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.Rl_User_Role - 用户、角色映射关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.Rl_Role_Authority - 角色、权限映射关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Assistant - 营业员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantCertCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员证件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇佣起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇佣截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Assistant_Daily_Patrol_Record - 针对营业员的日常巡查记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四、Assistant - 营业员模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五、Sale - 销售模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-  </si>
-  <si>
-    <t>voucherTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerName</t>
-  </si>
-  <si>
-    <t>customerTel</t>
-  </si>
-  <si>
-    <t>customerAddress</t>
-  </si>
-  <si>
-    <t>realCapital</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>payStatusOfDeposit</t>
-  </si>
-  <si>
-    <t>payStatusOfTotalCapital</t>
-  </si>
-  <si>
-    <t>saleTime</t>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boothId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者电话</t>
-  </si>
-  <si>
-    <t>消费者地址</t>
-  </si>
-  <si>
-    <t>商品金额总计</t>
-  </si>
-  <si>
-    <t>优惠金额</t>
-  </si>
-  <si>
-    <t>实际金额</t>
-  </si>
-  <si>
-    <t>定金金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定金缴纳状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全款缴纳状态</t>
-  </si>
-  <si>
-    <t>销售记录发生时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Sale_Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-  </si>
-  <si>
-    <t>2.Pay_Status - 缴纳状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型名称</t>
-  </si>
-  <si>
-    <t>typeId</t>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Voucher_Type - 单据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.Sale_Record_Detail - 销售记录详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录标识</t>
-  </si>
-  <si>
-    <t>所属单据号</t>
-  </si>
-  <si>
-    <t>能定位到某商品的编号</t>
-  </si>
-  <si>
-    <t>商品单价</t>
-  </si>
-  <si>
-    <t>商品数量</t>
-  </si>
-  <si>
-    <t>recordId</t>
-  </si>
-  <si>
-    <t>goodsCode</t>
-  </si>
-  <si>
-    <t>unitPrice</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>六、Message - 消息模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendUserCode</t>
-  </si>
-  <si>
-    <t>messageText</t>
-  </si>
-  <si>
-    <t>messageStatusId</t>
-  </si>
-  <si>
-    <t>消息标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送者编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受者编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Message_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectBaseFee</t>
-  </si>
-  <si>
-    <t>projectBeginDate</t>
-  </si>
-  <si>
-    <t>projectEndDate</t>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectStatusId</t>
-  </si>
-  <si>
-    <t>项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目发起方或组织方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目门槛费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次编辑用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Project - 项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Rl_Project_Merchant - 项目商户关联信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Project_Status - 项目状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七、Project - 项目模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八、System - 系统模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.System_Parameter - 系统参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九、Query - 统计查询模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十、AfterSale - 售后模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的销售单据编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理起始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理问题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理意见备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结果备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrIdeaRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrResultRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.After_Sale_Record - 售后记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeBeginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeEndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反条款编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的营业员名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.After_Sale_Record_Status - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.After_Sale_Record_Type - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldAsrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">voucherCode  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsCategroyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商品品类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一、Goods - 商品模块（含品类）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.商品品类 - Goods_Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcName</t>
-  </si>
-  <si>
-    <t>gcGradeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upGradeGcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsPrice</t>
-  </si>
-  <si>
-    <t>2.商品 - Goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类名称</t>
-  </si>
-  <si>
-    <t>品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类所属级别序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品类别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标签价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二、Evaluate - 评价管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.商户评价 - Merchant_Evaluate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meItemTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meSonItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该子评价项目占当前父评价项目的权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父评价项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子评价项目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meParentItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三、商户管理（并入招商模块）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十四、日志管理（暂时不涉及）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十五、品牌管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandCode</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>brandSymbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessLicense</t>
-  </si>
-  <si>
-    <t>registeredCapital</t>
-  </si>
-  <si>
-    <t>taxRegistrationNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalPersonNo</t>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌助记符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.品牌信息 - Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcTypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.品牌认证类型 - Brand_Cert_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.品牌认证 - Brand_Cert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照注册号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务登记证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证类型标识</t>
-  </si>
-  <si>
-    <t>认证类型名称</t>
-  </si>
-  <si>
-    <t>品牌认证标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属品牌标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十六、合同模板管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板标识</t>
-  </si>
-  <si>
-    <t>合同模板编号</t>
-  </si>
-  <si>
-    <t>合同模板文本之存储路径</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctId</t>
-  </si>
-  <si>
-    <t>ctCode</t>
-  </si>
-  <si>
-    <t>ctName</t>
-  </si>
-  <si>
-    <t>storagePath</t>
-  </si>
-  <si>
-    <t>1.合同模板 - Contract_Template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十七、合同管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型标识</t>
-  </si>
-  <si>
-    <t>项目标识</t>
-  </si>
-  <si>
-    <t>合同期限</t>
-  </si>
-  <si>
-    <t>合同签订日期</t>
-  </si>
-  <si>
-    <t>合同起始日期</t>
-  </si>
-  <si>
-    <t>合同截止日期</t>
-  </si>
-  <si>
-    <t>合同费用总计</t>
-  </si>
-  <si>
-    <t>优惠费用总计</t>
-  </si>
-  <si>
-    <t>实际费用总计</t>
-  </si>
-  <si>
-    <t>合同缴费周期方式类型标识</t>
-  </si>
-  <si>
-    <t>合同分期次数</t>
-  </si>
-  <si>
-    <t>登记合同的用户编号</t>
-  </si>
-  <si>
-    <t>登记时间</t>
-  </si>
-  <si>
-    <t>最近一次的用户编号</t>
-  </si>
-  <si>
-    <t>最近一次的编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态标识</t>
-  </si>
-  <si>
-    <t>1.合同基本信息 - Contract_Basic_Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signingDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCapital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discountAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPeriodTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.合同收费明细信息 - Contract_Charge_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务收费名目标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收金额</t>
-  </si>
-  <si>
-    <t>最后一次编辑用户编号</t>
-  </si>
-  <si>
-    <t>最后一次编辑时间</t>
-  </si>
-  <si>
-    <t>chargeItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.合同缴费方式明细信息 - Contract_PayMode_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各分期序号</t>
-  </si>
-  <si>
-    <t>各分期的截止日期</t>
-  </si>
-  <si>
-    <t>各分期缴费金额</t>
-  </si>
-  <si>
-    <t>periodNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payModeTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请类型</t>
-  </si>
-  <si>
-    <t>提交申请日期</t>
-  </si>
-  <si>
-    <t>申请合同终止的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同延续的截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请合同终止、延续的原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.合同延续、终止申请 - Contract_Apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyFinishDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyExtendEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费方式标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费方式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.合同缴费方式 - PayMode_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.合同类型 - Contract_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.合同状态 - Contract_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费周期类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同缴费周期类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八、财务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费名目标识</t>
-  </si>
-  <si>
-    <t>收费名目编号</t>
-  </si>
-  <si>
-    <t>收费名目名称</t>
-  </si>
-  <si>
-    <t>是否合同收费名目</t>
-  </si>
-  <si>
-    <t>是否资源租赁收费名目</t>
-  </si>
-  <si>
-    <t>费用描述</t>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用周期性标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体缴费类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.合同缴费周期类型 - Contract_Pay_Period_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.财务收费名目 - Financial_Charge_Item </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商户标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属资源标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交易记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContractItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isResourceItemFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPeriodTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.财务交易记录 - Financial_Trade_Record </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldVoucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费起始日期</t>
-  </si>
-  <si>
-    <t>缴费截止日期</t>
-  </si>
-  <si>
-    <t>tradeBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.财务交易记录状态 - Financial_Trade_Status </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摊位标准费用款项标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摊位标准费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际收费款项标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.Booth_Real_Fee - 摊位实际收费款项信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业状态（属于摊位状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安保状态（属于摊位状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修状态（属于摊位状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原售后记录标识（适用于投诉回访）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录状态名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3045,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="B379" sqref="B379"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3368,7 +3369,7 @@
     <row r="43" spans="1:2" s="5" customFormat="1"/>
     <row r="44" spans="1:2" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3376,7 +3377,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3400,7 +3401,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3438,7 +3439,7 @@
     <row r="53" spans="1:2" s="5" customFormat="1"/>
     <row r="54" spans="1:2" s="6" customFormat="1">
       <c r="A54" s="6" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3446,7 +3447,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3499,7 +3500,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>17</v>
@@ -3664,7 +3665,7 @@
     <row r="86" spans="1:2" s="2" customFormat="1"/>
     <row r="88" spans="1:2" s="7" customFormat="1">
       <c r="A88" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1">
@@ -3677,7 +3678,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3685,7 +3686,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3693,7 +3694,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3701,7 +3702,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3709,7 +3710,7 @@
         <v>101</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3717,7 +3718,7 @@
         <v>102</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3725,7 +3726,7 @@
         <v>103</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3733,7 +3734,7 @@
         <v>105</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3741,7 +3742,7 @@
         <v>106</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3749,7 +3750,7 @@
         <v>107</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3757,7 +3758,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3765,7 +3766,7 @@
         <v>109</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3773,7 +3774,7 @@
         <v>110</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3781,7 +3782,7 @@
         <v>111</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3789,7 +3790,7 @@
         <v>112</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3797,7 +3798,7 @@
         <v>113</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3805,7 +3806,7 @@
         <v>114</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3813,7 +3814,7 @@
         <v>115</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3821,7 +3822,7 @@
         <v>116</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3829,7 +3830,7 @@
         <v>117</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3837,7 +3838,7 @@
         <v>118</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3845,7 +3846,7 @@
         <v>119</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3853,7 +3854,7 @@
         <v>120</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3861,7 +3862,7 @@
         <v>121</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3869,7 +3870,7 @@
         <v>122</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3877,7 +3878,7 @@
         <v>123</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3885,7 +3886,7 @@
         <v>124</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3893,7 +3894,7 @@
         <v>125</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3901,36 +3902,36 @@
         <v>126</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>127</v>
+        <v>693</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
-        <v>128</v>
+        <v>694</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>129</v>
+        <v>695</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>5</v>
@@ -3938,24 +3939,24 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="5" customFormat="1"/>
     <row r="126" spans="1:2" s="6" customFormat="1">
       <c r="A126" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3963,29 +3964,29 @@
         <v>44</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="5" customFormat="1"/>
     <row r="130" spans="1:2" s="6" customFormat="1">
       <c r="A130" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3993,52 +3994,52 @@
         <v>44</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>9</v>
@@ -4046,7 +4047,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>13</v>
@@ -4054,7 +4055,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>17</v>
@@ -4063,28 +4064,28 @@
     <row r="141" spans="1:2" s="5" customFormat="1"/>
     <row r="142" spans="1:2" s="6" customFormat="1">
       <c r="A142" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>9</v>
@@ -4092,7 +4093,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>13</v>
@@ -4100,7 +4101,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>17</v>
@@ -4109,103 +4110,103 @@
     <row r="148" spans="1:2" s="5" customFormat="1"/>
     <row r="149" spans="1:2" s="6" customFormat="1">
       <c r="A149" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="5" customFormat="1"/>
     <row r="153" spans="1:2" s="6" customFormat="1">
       <c r="A153" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="5" customFormat="1"/>
     <row r="157" spans="1:2" s="6" customFormat="1">
       <c r="A157" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:2" s="5" customFormat="1"/>
     <row r="161" spans="1:2" s="6" customFormat="1">
       <c r="A161" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164" spans="1:2" s="5" customFormat="1"/>
     <row r="165" spans="1:2" s="6" customFormat="1">
       <c r="A165" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4213,169 +4214,169 @@
         <v>97</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
     <row r="175" spans="1:2" s="5" customFormat="1"/>
     <row r="176" spans="1:2" s="7" customFormat="1">
       <c r="A176" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177" spans="1:2" s="6" customFormat="1">
       <c r="A177" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:2" s="5" customFormat="1"/>
     <row r="187" spans="1:2" s="6" customFormat="1">
       <c r="A187" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4383,31 +4384,31 @@
         <v>104</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4415,53 +4416,53 @@
         <v>11</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="5" customFormat="1"/>
     <row r="200" spans="1:2" s="6" customFormat="1">
       <c r="A200" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4469,7 +4470,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4477,177 +4478,177 @@
         <v>15</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="207" spans="1:2" s="5" customFormat="1"/>
     <row r="208" spans="1:2" s="6" customFormat="1">
       <c r="A208" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="212" spans="1:2" s="5" customFormat="1"/>
     <row r="213" spans="1:2" s="6" customFormat="1">
       <c r="A213" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="216" spans="1:2" s="5" customFormat="1"/>
     <row r="217" spans="1:2" s="6" customFormat="1">
       <c r="A217" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="5" customFormat="1"/>
     <row r="221" spans="1:2" s="6" customFormat="1">
       <c r="A221" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:2" s="5" customFormat="1"/>
     <row r="225" spans="1:2" s="6" customFormat="1">
       <c r="A225" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
     <row r="230" spans="1:2" s="5" customFormat="1"/>
     <row r="231" spans="1:2" s="7" customFormat="1">
       <c r="A231" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="6" customFormat="1">
       <c r="A232" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4655,7 +4656,7 @@
         <v>105</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4663,7 +4664,7 @@
         <v>101</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4671,93 +4672,93 @@
         <v>97</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="247" spans="1:2" s="5" customFormat="1"/>
     <row r="248" spans="1:2" s="6" customFormat="1">
       <c r="A248" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4765,23 +4766,23 @@
         <v>7</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
@@ -4789,28 +4790,28 @@
     <row r="258" spans="1:2" s="5" customFormat="1"/>
     <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="6" customFormat="1">
       <c r="A260" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4818,12 +4819,12 @@
         <v>44</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>49</v>
@@ -4831,90 +4832,90 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4930,105 +4931,105 @@
         <v>11</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="5" customFormat="1"/>
     <row r="280" spans="1:2" s="6" customFormat="1">
       <c r="A280" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="5" customFormat="1"/>
     <row r="284" spans="1:2" s="6" customFormat="1">
       <c r="A284" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="5" customFormat="1"/>
     <row r="288" spans="1:2" s="6" customFormat="1">
       <c r="A288" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5052,7 +5053,7 @@
         <v>15</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
@@ -5060,52 +5061,52 @@
     <row r="299" spans="1:2" s="5" customFormat="1"/>
     <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="301" spans="1:2" s="6" customFormat="1">
       <c r="A301" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5119,23 +5120,23 @@
     <row r="308" spans="1:2" s="5" customFormat="1"/>
     <row r="309" spans="1:2" s="6" customFormat="1">
       <c r="A309" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
@@ -5143,68 +5144,68 @@
     <row r="314" spans="1:2" s="5" customFormat="1"/>
     <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="316" spans="1:2" s="6" customFormat="1">
       <c r="A316" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5212,67 +5213,67 @@
         <v>7</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:2" s="5" customFormat="1"/>
     <row r="328" spans="1:2" s="6" customFormat="1">
       <c r="A328" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="331" spans="1:2" s="5" customFormat="1"/>
     <row r="332" spans="1:2" s="6" customFormat="1">
       <c r="A332" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
@@ -5280,36 +5281,36 @@
     <row r="337" spans="1:2" s="5" customFormat="1"/>
     <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A338" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="6" customFormat="1">
       <c r="A339" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
@@ -5317,7 +5318,7 @@
     <row r="345" spans="1:2" s="5" customFormat="1"/>
     <row r="346" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A346" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="347" spans="1:2" s="5" customFormat="1"/>
@@ -5325,157 +5326,157 @@
     <row r="349" spans="1:2" s="5" customFormat="1"/>
     <row r="350" spans="1:2" s="7" customFormat="1">
       <c r="A350" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B351" s="6"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5483,106 +5484,106 @@
         <v>12</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="372" spans="1:2" s="5" customFormat="1"/>
     <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B373" s="6"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="5" customFormat="1"/>
     <row r="377" spans="1:2">
       <c r="A377" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B377" s="6"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="380" spans="1:2" s="5" customFormat="1"/>
     <row r="381" spans="1:2">
       <c r="A381" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B381" s="6"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="384" spans="1:2" s="5" customFormat="1"/>
     <row r="385" spans="1:2" s="6" customFormat="1">
       <c r="A385" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="388" spans="1:2" s="5" customFormat="1"/>
@@ -5590,60 +5591,60 @@
     <row r="390" spans="1:2" s="5" customFormat="1"/>
     <row r="391" spans="1:2" s="7" customFormat="1">
       <c r="A391" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="6" customFormat="1">
       <c r="A392" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5651,7 +5652,7 @@
         <v>11</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5659,61 +5660,61 @@
         <v>15</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="5" customFormat="1"/>
     <row r="402" spans="1:2" s="6" customFormat="1">
       <c r="A402" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5721,7 +5722,7 @@
         <v>7</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5729,7 +5730,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5737,7 +5738,7 @@
         <v>15</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="412" spans="1:2" s="5" customFormat="1"/>
@@ -5745,105 +5746,105 @@
     <row r="414" spans="1:2" s="5" customFormat="1"/>
     <row r="415" spans="1:2" s="7" customFormat="1">
       <c r="A415" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="6" customFormat="1">
       <c r="A416" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="426" spans="1:2" s="6" customFormat="1">
       <c r="A426" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="430" spans="1:2" s="5" customFormat="1"/>
@@ -5851,7 +5852,7 @@
     <row r="432" spans="1:2" s="5" customFormat="1"/>
     <row r="433" spans="1:2" s="7" customFormat="1">
       <c r="A433" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="434" spans="1:2" s="5" customFormat="1"/>
@@ -5859,7 +5860,7 @@
     <row r="436" spans="1:2" s="5" customFormat="1"/>
     <row r="437" spans="1:2" s="7" customFormat="1">
       <c r="A437" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="438" spans="1:2" s="5" customFormat="1"/>
@@ -5867,108 +5868,108 @@
     <row r="440" spans="1:2" s="5" customFormat="1"/>
     <row r="441" spans="1:2" s="7" customFormat="1">
       <c r="A441" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="442" spans="1:2" s="6" customFormat="1">
       <c r="A442" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5976,34 +5977,34 @@
         <v>15</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="456" spans="1:2" s="5" customFormat="1"/>
     <row r="457" spans="1:2" s="6" customFormat="1">
       <c r="A457" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>9</v>
@@ -6011,7 +6012,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>13</v>
@@ -6028,55 +6029,55 @@
     <row r="463" spans="1:2" s="5" customFormat="1"/>
     <row r="464" spans="1:2" s="6" customFormat="1">
       <c r="A464" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6108,52 +6109,52 @@
     <row r="476" spans="1:2" s="5" customFormat="1"/>
     <row r="477" spans="1:2" s="7" customFormat="1">
       <c r="A477" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="478" spans="1:2" s="6" customFormat="1">
       <c r="A478" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6185,41 +6186,41 @@
     <row r="489" spans="1:2" s="5" customFormat="1"/>
     <row r="490" spans="1:2" s="7" customFormat="1">
       <c r="A490" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="491" spans="1:2" s="6" customFormat="1">
       <c r="A491" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>85</v>
@@ -6227,87 +6228,87 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>5</v>
@@ -6315,109 +6316,109 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="512" spans="1:2" s="5" customFormat="1"/>
     <row r="513" spans="1:2" s="6" customFormat="1">
       <c r="A513" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>17</v>
@@ -6426,52 +6427,52 @@
     <row r="522" spans="1:2" s="5" customFormat="1"/>
     <row r="523" spans="1:2" s="6" customFormat="1">
       <c r="A523" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>9</v>
@@ -6479,15 +6480,15 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>17</v>
@@ -6496,84 +6497,84 @@
     <row r="532" spans="1:2" s="5" customFormat="1"/>
     <row r="533" spans="1:2" s="6" customFormat="1">
       <c r="A533" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>9</v>
@@ -6581,109 +6582,109 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="546" spans="1:4" s="5" customFormat="1"/>
     <row r="547" spans="1:4" s="6" customFormat="1">
       <c r="A547" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="550" spans="1:4" s="5" customFormat="1"/>
     <row r="551" spans="1:4" s="6" customFormat="1">
       <c r="A551" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="554" spans="1:4" s="5" customFormat="1"/>
     <row r="555" spans="1:4" s="6" customFormat="1">
       <c r="A555" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D557" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="558" spans="1:4" s="5" customFormat="1"/>
     <row r="559" spans="1:4" s="6" customFormat="1">
       <c r="A559" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="562" spans="1:2" s="5" customFormat="1"/>
@@ -6691,89 +6692,89 @@
     <row r="564" spans="1:2" s="5" customFormat="1"/>
     <row r="565" spans="1:2" s="7" customFormat="1">
       <c r="A565" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="566" spans="1:2" s="6" customFormat="1">
       <c r="A566" s="6" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>9</v>
@@ -6781,96 +6782,96 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="579" spans="1:2" s="5" customFormat="1"/>
     <row r="580" spans="1:2" s="6" customFormat="1">
       <c r="A580" s="6" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -6891,16 +6892,16 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="593" spans="1:2" s="5" customFormat="1"/>
     <row r="594" spans="1:2" s="6" customFormat="1">
       <c r="A594" s="6" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -6908,7 +6909,7 @@
         <v>48</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -6916,49 +6917,98 @@
         <v>60</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="A522:XFD522"/>
-    <mergeCell ref="A523:XFD523"/>
-    <mergeCell ref="A532:XFD532"/>
-    <mergeCell ref="A562:XFD562"/>
-    <mergeCell ref="A564:XFD564"/>
-    <mergeCell ref="A565:XFD565"/>
-    <mergeCell ref="A566:XFD566"/>
-    <mergeCell ref="A533:XFD533"/>
-    <mergeCell ref="A546:XFD546"/>
-    <mergeCell ref="A547:XFD547"/>
-    <mergeCell ref="A550:XFD550"/>
-    <mergeCell ref="A551:XFD551"/>
-    <mergeCell ref="A554:XFD554"/>
-    <mergeCell ref="A555:XFD555"/>
-    <mergeCell ref="A558:XFD558"/>
-    <mergeCell ref="A559:XFD559"/>
-    <mergeCell ref="A416:XFD416"/>
-    <mergeCell ref="A426:XFD426"/>
-    <mergeCell ref="A430:XFD430"/>
-    <mergeCell ref="A487:XFD487"/>
-    <mergeCell ref="A489:XFD489"/>
-    <mergeCell ref="A490:XFD490"/>
-    <mergeCell ref="A491:XFD491"/>
-    <mergeCell ref="A512:XFD512"/>
-    <mergeCell ref="A513:XFD513"/>
-    <mergeCell ref="A474:XFD474"/>
-    <mergeCell ref="A441:XFD441"/>
-    <mergeCell ref="A442:XFD442"/>
-    <mergeCell ref="A456:XFD456"/>
-    <mergeCell ref="A457:XFD457"/>
-    <mergeCell ref="A463:XFD463"/>
-    <mergeCell ref="A464:XFD464"/>
-    <mergeCell ref="A433:XFD433"/>
-    <mergeCell ref="A434:XFD434"/>
-    <mergeCell ref="A436:XFD436"/>
-    <mergeCell ref="A437:XFD437"/>
-    <mergeCell ref="A438:XFD438"/>
-    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A579:XFD579"/>
+    <mergeCell ref="A580:XFD580"/>
+    <mergeCell ref="A593:XFD593"/>
+    <mergeCell ref="A594:XFD594"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A476:XFD476"/>
+    <mergeCell ref="A477:XFD477"/>
+    <mergeCell ref="A478:XFD478"/>
+    <mergeCell ref="A432:XFD432"/>
+    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A331:XFD331"/>
+    <mergeCell ref="A332:XFD332"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
     <mergeCell ref="A415:XFD415"/>
     <mergeCell ref="A288:XFD288"/>
     <mergeCell ref="A279:XFD279"/>
@@ -6983,93 +7033,44 @@
     <mergeCell ref="A401:XFD401"/>
     <mergeCell ref="A402:XFD402"/>
     <mergeCell ref="A412:XFD412"/>
-    <mergeCell ref="A331:XFD331"/>
-    <mergeCell ref="A332:XFD332"/>
-    <mergeCell ref="A327:XFD327"/>
-    <mergeCell ref="A328:XFD328"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A579:XFD579"/>
-    <mergeCell ref="A580:XFD580"/>
-    <mergeCell ref="A593:XFD593"/>
-    <mergeCell ref="A594:XFD594"/>
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A390:XFD390"/>
-    <mergeCell ref="A384:XFD384"/>
-    <mergeCell ref="A385:XFD385"/>
-    <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A388:XFD388"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:XFD376"/>
-    <mergeCell ref="A476:XFD476"/>
-    <mergeCell ref="A477:XFD477"/>
-    <mergeCell ref="A478:XFD478"/>
-    <mergeCell ref="A432:XFD432"/>
-    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A487:XFD487"/>
+    <mergeCell ref="A489:XFD489"/>
+    <mergeCell ref="A490:XFD490"/>
+    <mergeCell ref="A491:XFD491"/>
+    <mergeCell ref="A512:XFD512"/>
+    <mergeCell ref="A513:XFD513"/>
+    <mergeCell ref="A474:XFD474"/>
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A522:XFD522"/>
+    <mergeCell ref="A523:XFD523"/>
+    <mergeCell ref="A532:XFD532"/>
+    <mergeCell ref="A562:XFD562"/>
+    <mergeCell ref="A564:XFD564"/>
+    <mergeCell ref="A565:XFD565"/>
+    <mergeCell ref="A566:XFD566"/>
+    <mergeCell ref="A533:XFD533"/>
+    <mergeCell ref="A546:XFD546"/>
+    <mergeCell ref="A547:XFD547"/>
+    <mergeCell ref="A550:XFD550"/>
+    <mergeCell ref="A551:XFD551"/>
+    <mergeCell ref="A554:XFD554"/>
+    <mergeCell ref="A555:XFD555"/>
+    <mergeCell ref="A558:XFD558"/>
+    <mergeCell ref="A559:XFD559"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
